--- a/Escala.outubro.xlsx
+++ b/Escala.outubro.xlsx
@@ -24,7 +24,7 @@
     <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
     <numFmt formatCode="dd/mm/yyyy" numFmtId="165"/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -204,6 +204,10 @@
       <b val="1"/>
       <color rgb="00FF0000"/>
     </font>
+    <font>
+      <b val="1"/>
+      <color rgb="00800080"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -341,7 +345,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -464,9 +468,12 @@
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="7" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="11" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="12" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -770,7 +777,7 @@
   <dimension ref="A1:CG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -790,7 +797,7 @@
         <v>43739</v>
       </c>
       <c r="C1" s="5" t="n">
-        <v>43769</v>
+        <v>43830</v>
       </c>
       <c r="E1" s="41" t="inlineStr">
         <is>
@@ -2159,7 +2166,7 @@
   <dimension ref="A1:B36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="B1:D36"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -2244,6 +2251,9 @@
           <t>2S SIN TADEU</t>
         </is>
       </c>
+      <c r="B11" s="49" t="n">
+        <v>43828</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="49" t="inlineStr">
@@ -2251,6 +2261,9 @@
           <t>2S SEL DIMAS</t>
         </is>
       </c>
+      <c r="B12" s="49" t="n">
+        <v>43827</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="49" t="inlineStr">
@@ -2258,6 +2271,9 @@
           <t>2S SAD CALIXTO</t>
         </is>
       </c>
+      <c r="B13" s="49" t="n">
+        <v>43821</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="49" t="inlineStr">
@@ -2265,6 +2281,9 @@
           <t>2S SIN RODRIGUES</t>
         </is>
       </c>
+      <c r="B14" s="49" t="n">
+        <v>43820</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="49" t="inlineStr">
@@ -2272,6 +2291,9 @@
           <t>2S SIN ÉDER</t>
         </is>
       </c>
+      <c r="B15" s="49" t="n">
+        <v>43814</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="49" t="inlineStr">
@@ -2279,6 +2301,9 @@
           <t>2S SAD LEITE</t>
         </is>
       </c>
+      <c r="B16" s="49" t="n">
+        <v>43813</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="49" t="inlineStr">
@@ -2286,6 +2311,9 @@
           <t>2S BET CLÓVIS</t>
         </is>
       </c>
+      <c r="B17" s="49" t="n">
+        <v>43807</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="49" t="inlineStr">
@@ -2293,6 +2321,9 @@
           <t>2S SIN ADRIANO</t>
         </is>
       </c>
+      <c r="B18" s="49" t="n">
+        <v>43806</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="49" t="inlineStr">
@@ -2300,6 +2331,9 @@
           <t>2S SAD DANIELA FURTADO</t>
         </is>
       </c>
+      <c r="B19" s="49" t="n">
+        <v>43800</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="49" t="inlineStr">
@@ -2307,6 +2341,9 @@
           <t>2S SIN ALAN</t>
         </is>
       </c>
+      <c r="B20" s="49" t="n">
+        <v>43799</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="49" t="inlineStr">
@@ -2314,6 +2351,9 @@
           <t>2S SIN MIRANDA</t>
         </is>
       </c>
+      <c r="B21" s="49" t="n">
+        <v>43793</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="49" t="inlineStr">
@@ -2321,6 +2361,9 @@
           <t>2S BET ALMEIDA</t>
         </is>
       </c>
+      <c r="B22" s="49" t="n">
+        <v>43792</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="49" t="inlineStr">
@@ -2328,6 +2371,9 @@
           <t>2S SAD JULIA</t>
         </is>
       </c>
+      <c r="B23" s="49" t="n">
+        <v>43786</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="49" t="inlineStr">
@@ -2335,6 +2381,9 @@
           <t>3S SIN SANTOS</t>
         </is>
       </c>
+      <c r="B24" s="49" t="n">
+        <v>43785</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="49" t="inlineStr">
@@ -2342,6 +2391,9 @@
           <t>3S SIN MOTTA</t>
         </is>
       </c>
+      <c r="B25" s="49" t="n">
+        <v>43779</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="49" t="inlineStr">
@@ -2349,6 +2401,9 @@
           <t>3S SIN PEDROSO</t>
         </is>
       </c>
+      <c r="B26" s="49" t="n">
+        <v>43778</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="49" t="inlineStr">
@@ -2356,12 +2411,18 @@
           <t>3S SIN FERRAZ</t>
         </is>
       </c>
+      <c r="B27" s="49" t="n">
+        <v>43772</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="49" t="inlineStr">
         <is>
           <t>3S SIN LEON</t>
         </is>
+      </c>
+      <c r="B28" s="49" t="n">
+        <v>43771</v>
       </c>
     </row>
     <row r="29">
@@ -2488,6 +2549,9 @@
           <t>1S SGS ANDERSON</t>
         </is>
       </c>
+      <c r="B2" s="49" t="n">
+        <v>43795</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="49" t="inlineStr">
@@ -2495,6 +2559,9 @@
           <t>1S SAD CLAUDINO</t>
         </is>
       </c>
+      <c r="B3" s="49" t="n">
+        <v>43794</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="inlineStr">
@@ -2502,6 +2569,9 @@
           <t>2S SIN DAVID</t>
         </is>
       </c>
+      <c r="B4" s="49" t="n">
+        <v>43790</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="49" t="inlineStr">
@@ -2509,6 +2579,9 @@
           <t>2S SIN VICTOR</t>
         </is>
       </c>
+      <c r="B5" s="49" t="n">
+        <v>43789</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="inlineStr">
@@ -2516,6 +2589,9 @@
           <t>2S SIN SUELEN</t>
         </is>
       </c>
+      <c r="B6" s="49" t="n">
+        <v>43788</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="49" t="inlineStr">
@@ -2523,6 +2599,9 @@
           <t>2S SCF GISELI</t>
         </is>
       </c>
+      <c r="B7" s="49" t="n">
+        <v>43787</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="49" t="inlineStr">
@@ -2530,6 +2609,9 @@
           <t>2S SIN BRUNO</t>
         </is>
       </c>
+      <c r="B8" s="49" t="n">
+        <v>43783</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="49" t="inlineStr">
@@ -2537,6 +2619,9 @@
           <t>2S SIN ANDRÉ LUÍZ</t>
         </is>
       </c>
+      <c r="B9" s="49" t="n">
+        <v>43782</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="49" t="inlineStr">
@@ -2544,6 +2629,9 @@
           <t>2S SAD TATIANNE</t>
         </is>
       </c>
+      <c r="B10" s="49" t="n">
+        <v>43781</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="49" t="inlineStr">
@@ -2551,6 +2639,9 @@
           <t>2S SIN TADEU</t>
         </is>
       </c>
+      <c r="B11" s="49" t="n">
+        <v>43780</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="49" t="inlineStr">
@@ -2558,6 +2649,9 @@
           <t>2S SEL DIMAS</t>
         </is>
       </c>
+      <c r="B12" s="49" t="n">
+        <v>43776</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="49" t="inlineStr">
@@ -2565,6 +2659,9 @@
           <t>2S SAD CALIXTO</t>
         </is>
       </c>
+      <c r="B13" s="49" t="n">
+        <v>43775</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="49" t="inlineStr">
@@ -2572,6 +2669,9 @@
           <t>2S SIN RODRIGUES</t>
         </is>
       </c>
+      <c r="B14" s="49" t="n">
+        <v>43774</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="49" t="inlineStr">
@@ -2579,6 +2679,9 @@
           <t>2S SIN ÉDER</t>
         </is>
       </c>
+      <c r="B15" s="49" t="n">
+        <v>43773</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="49" t="inlineStr">
@@ -2599,6 +2702,9 @@
       <c r="B17" s="49" t="n">
         <v>43768</v>
       </c>
+      <c r="C17" s="49" t="n">
+        <v>43830</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="49" t="inlineStr">
@@ -2609,6 +2715,9 @@
       <c r="B18" s="49" t="n">
         <v>43767</v>
       </c>
+      <c r="C18" s="49" t="n">
+        <v>43829</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="49" t="inlineStr">
@@ -2619,6 +2728,9 @@
       <c r="B19" s="49" t="n">
         <v>43766</v>
       </c>
+      <c r="C19" s="49" t="n">
+        <v>43825</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="49" t="inlineStr">
@@ -2629,6 +2741,9 @@
       <c r="B20" s="49" t="n">
         <v>43762</v>
       </c>
+      <c r="C20" s="49" t="n">
+        <v>43822</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="49" t="inlineStr">
@@ -2639,6 +2754,9 @@
       <c r="B21" s="49" t="n">
         <v>43761</v>
       </c>
+      <c r="C21" s="49" t="n">
+        <v>43818</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="49" t="inlineStr">
@@ -2649,6 +2767,9 @@
       <c r="B22" s="49" t="n">
         <v>43760</v>
       </c>
+      <c r="C22" s="49" t="n">
+        <v>43817</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="49" t="inlineStr">
@@ -2659,6 +2780,9 @@
       <c r="B23" s="49" t="n">
         <v>43759</v>
       </c>
+      <c r="C23" s="49" t="n">
+        <v>43816</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="49" t="inlineStr">
@@ -2669,6 +2793,9 @@
       <c r="B24" s="49" t="n">
         <v>43755</v>
       </c>
+      <c r="C24" s="49" t="n">
+        <v>43815</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="49" t="inlineStr">
@@ -2679,6 +2806,9 @@
       <c r="B25" s="49" t="n">
         <v>43754</v>
       </c>
+      <c r="C25" s="49" t="n">
+        <v>43811</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="49" t="inlineStr">
@@ -2696,6 +2826,9 @@
       <c r="B27" s="49" t="n">
         <v>43753</v>
       </c>
+      <c r="C27" s="49" t="n">
+        <v>43810</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="49" t="inlineStr">
@@ -2706,6 +2839,9 @@
       <c r="B28" s="49" t="n">
         <v>43752</v>
       </c>
+      <c r="C28" s="49" t="n">
+        <v>43809</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="49" t="inlineStr">
@@ -2716,6 +2852,9 @@
       <c r="B29" s="49" t="n">
         <v>43748</v>
       </c>
+      <c r="C29" s="49" t="n">
+        <v>43808</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="49" t="inlineStr">
@@ -2726,6 +2865,9 @@
       <c r="B30" s="49" t="n">
         <v>43747</v>
       </c>
+      <c r="C30" s="49" t="n">
+        <v>43804</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="49" t="inlineStr">
@@ -2736,6 +2878,9 @@
       <c r="B31" s="49" t="n">
         <v>43746</v>
       </c>
+      <c r="C31" s="49" t="n">
+        <v>43803</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="49" t="inlineStr">
@@ -2746,6 +2891,9 @@
       <c r="B32" s="49" t="n">
         <v>43745</v>
       </c>
+      <c r="C32" s="49" t="n">
+        <v>43802</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="49" t="inlineStr">
@@ -2756,6 +2904,9 @@
       <c r="B33" s="49" t="n">
         <v>43741</v>
       </c>
+      <c r="C33" s="49" t="n">
+        <v>43801</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="49" t="inlineStr">
@@ -2773,6 +2924,9 @@
       <c r="B35" s="49" t="n">
         <v>43740</v>
       </c>
+      <c r="C35" s="49" t="n">
+        <v>43797</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="49" t="inlineStr">
@@ -2782,6 +2936,9 @@
       </c>
       <c r="B36" s="49" t="n">
         <v>43739</v>
+      </c>
+      <c r="C36" s="49" t="n">
+        <v>43796</v>
       </c>
     </row>
   </sheetData>
@@ -2797,7 +2954,7 @@
   </sheetPr>
   <dimension ref="A1:F36"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C15" sqref="B15:C36"/>
     </sheetView>
   </sheetViews>
@@ -2967,6 +3124,9 @@
           <t>2S BET ALMEIDA</t>
         </is>
       </c>
+      <c r="B22" s="49" t="n">
+        <v>43826</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="49" t="inlineStr">
@@ -2974,6 +3134,9 @@
           <t>2S SAD JULIA</t>
         </is>
       </c>
+      <c r="B23" s="49" t="n">
+        <v>43819</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="49" t="inlineStr">
@@ -2981,6 +3144,9 @@
           <t>3S SIN SANTOS</t>
         </is>
       </c>
+      <c r="B24" s="49" t="n">
+        <v>43812</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="49" t="inlineStr">
@@ -2988,6 +3154,9 @@
           <t>3S SIN MOTTA</t>
         </is>
       </c>
+      <c r="B25" s="49" t="n">
+        <v>43805</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="49" t="inlineStr">
@@ -3002,6 +3171,9 @@
           <t>3S SIN FERRAZ</t>
         </is>
       </c>
+      <c r="B27" s="49" t="n">
+        <v>43798</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="49" t="inlineStr">
@@ -3009,6 +3181,9 @@
           <t>3S SIN LEON</t>
         </is>
       </c>
+      <c r="B28" s="49" t="n">
+        <v>43791</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="49" t="inlineStr">
@@ -3016,6 +3191,9 @@
           <t xml:space="preserve">3S SAD JONATHAS </t>
         </is>
       </c>
+      <c r="B29" s="49" t="n">
+        <v>43784</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="49" t="inlineStr">
@@ -3023,12 +3201,18 @@
           <t>3S SIN ALBINO</t>
         </is>
       </c>
+      <c r="B30" s="49" t="n">
+        <v>43777</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="49" t="inlineStr">
         <is>
           <t>3S SIN ZÁCCARO</t>
         </is>
+      </c>
+      <c r="B31" s="49" t="n">
+        <v>43770</v>
       </c>
     </row>
     <row r="32">
@@ -3421,7 +3605,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D49"/>
+  <dimension ref="A1:D129"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4022,241 +4206,1594 @@
       </c>
       <c r="D33" s="51" t="n"/>
     </row>
-    <row r="34"/>
+    <row r="34">
+      <c r="A34" s="52" t="inlineStr">
+        <is>
+          <t>01/11/2019</t>
+        </is>
+      </c>
+      <c r="B34" s="52" t="inlineStr">
+        <is>
+          <t>SEXTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C34" s="52" t="inlineStr">
+        <is>
+          <t>3S SIN ZÁCCARO</t>
+        </is>
+      </c>
+      <c r="D34" s="51" t="n"/>
+    </row>
     <row r="35">
-      <c r="A35" s="51" t="inlineStr">
-        <is>
-          <t>RESERVAS:</t>
-        </is>
-      </c>
-      <c r="B35" s="54" t="n"/>
-      <c r="C35" s="54" t="n"/>
-      <c r="D35" s="55" t="n"/>
+      <c r="A35" s="53" t="inlineStr">
+        <is>
+          <t>02/11/2019</t>
+        </is>
+      </c>
+      <c r="B35" s="53" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="C35" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN LEON</t>
+        </is>
+      </c>
+      <c r="D35" s="51" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="53" t="inlineStr">
         <is>
-          <t>VERMELHA</t>
-        </is>
-      </c>
-      <c r="B36" s="55" t="n"/>
-      <c r="C36" s="52" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="D36" s="51" t="inlineStr">
-        <is>
-          <t>PRETA</t>
-        </is>
-      </c>
+          <t>03/11/2019</t>
+        </is>
+      </c>
+      <c r="B36" s="53" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="C36" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN FERRAZ</t>
+        </is>
+      </c>
+      <c r="D36" s="51" t="n"/>
     </row>
     <row r="37">
-      <c r="A37" s="53" t="inlineStr">
-        <is>
-          <t>05/10/2019</t>
-        </is>
-      </c>
-      <c r="B37" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN LEON</t>
-        </is>
-      </c>
-      <c r="C37" s="52" t="inlineStr">
-        <is>
-          <t>3S SIN ZÁCCARO</t>
-        </is>
-      </c>
-      <c r="D37" s="51" t="inlineStr">
+      <c r="A37" s="51" t="inlineStr">
+        <is>
+          <t>04/11/2019</t>
+        </is>
+      </c>
+      <c r="B37" s="51" t="inlineStr">
+        <is>
+          <t>SEGUNDA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C37" s="51" t="inlineStr">
         <is>
           <t>2S SIN ÉDER</t>
         </is>
       </c>
+      <c r="D37" s="51" t="n"/>
     </row>
     <row r="38">
-      <c r="A38" s="53" t="inlineStr">
-        <is>
-          <t>06/10/2019</t>
-        </is>
-      </c>
-      <c r="B38" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN FERRAZ</t>
-        </is>
-      </c>
-      <c r="C38" s="52" t="inlineStr">
+      <c r="A38" s="51" t="inlineStr">
+        <is>
+          <t>05/11/2019</t>
+        </is>
+      </c>
+      <c r="B38" s="51" t="inlineStr">
+        <is>
+          <t>TERÇA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C38" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN RODRIGUES</t>
+        </is>
+      </c>
+      <c r="D38" s="51" t="n"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="51" t="inlineStr">
+        <is>
+          <t>06/11/2019</t>
+        </is>
+      </c>
+      <c r="B39" s="51" t="inlineStr">
+        <is>
+          <t>QUARTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C39" s="51" t="inlineStr">
+        <is>
+          <t>2S SAD CALIXTO</t>
+        </is>
+      </c>
+      <c r="D39" s="51" t="n"/>
+    </row>
+    <row r="40">
+      <c r="A40" s="51" t="inlineStr">
+        <is>
+          <t>07/11/2019</t>
+        </is>
+      </c>
+      <c r="B40" s="51" t="inlineStr">
+        <is>
+          <t>QUINTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C40" s="51" t="inlineStr">
+        <is>
+          <t>2S SEL DIMAS</t>
+        </is>
+      </c>
+      <c r="D40" s="51" t="n"/>
+    </row>
+    <row r="41">
+      <c r="A41" s="52" t="inlineStr">
+        <is>
+          <t>08/11/2019</t>
+        </is>
+      </c>
+      <c r="B41" s="52" t="inlineStr">
+        <is>
+          <t>SEXTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C41" s="52" t="inlineStr">
         <is>
           <t>3S SIN ALBINO</t>
         </is>
       </c>
-      <c r="D38" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN RODRIGUES</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="53" t="inlineStr">
-        <is>
-          <t>12/10/2019</t>
-        </is>
-      </c>
-      <c r="B39" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN PEDROSO</t>
-        </is>
-      </c>
-      <c r="C39" s="52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3S SAD JONATHAS </t>
-        </is>
-      </c>
-      <c r="D39" s="51" t="inlineStr">
-        <is>
-          <t>2S SAD CALIXTO</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="53" t="inlineStr">
-        <is>
-          <t>13/10/2019</t>
-        </is>
-      </c>
-      <c r="B40" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN MOTTA</t>
-        </is>
-      </c>
-      <c r="C40" s="56" t="inlineStr"/>
-      <c r="D40" t="inlineStr"/>
-    </row>
-    <row r="41">
-      <c r="A41" s="53" t="inlineStr">
-        <is>
-          <t>19/10/2019</t>
-        </is>
-      </c>
-      <c r="B41" s="53" t="inlineStr">
-        <is>
-          <t>2S BET ALMEIDA</t>
-        </is>
-      </c>
-      <c r="C41" s="56" t="inlineStr"/>
-      <c r="D41" t="inlineStr"/>
+      <c r="D41" s="51" t="n"/>
     </row>
     <row r="42">
       <c r="A42" s="53" t="inlineStr">
         <is>
-          <t>20/10/2019</t>
+          <t>09/11/2019</t>
         </is>
       </c>
       <c r="B42" s="53" t="inlineStr">
         <is>
-          <t>3S SIN SANTOS</t>
-        </is>
-      </c>
-      <c r="C42" s="56" t="inlineStr"/>
-      <c r="D42" t="inlineStr"/>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="C42" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN PEDROSO</t>
+        </is>
+      </c>
+      <c r="D42" s="51" t="n"/>
     </row>
     <row r="43">
       <c r="A43" s="53" t="inlineStr">
         <is>
+          <t>10/11/2019</t>
+        </is>
+      </c>
+      <c r="B43" s="53" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="C43" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN MOTTA</t>
+        </is>
+      </c>
+      <c r="D43" s="51" t="n"/>
+    </row>
+    <row r="44">
+      <c r="A44" s="51" t="inlineStr">
+        <is>
+          <t>11/11/2019</t>
+        </is>
+      </c>
+      <c r="B44" s="51" t="inlineStr">
+        <is>
+          <t>SEGUNDA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C44" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN TADEU</t>
+        </is>
+      </c>
+      <c r="D44" s="51" t="n"/>
+    </row>
+    <row r="45">
+      <c r="A45" s="51" t="inlineStr">
+        <is>
+          <t>12/11/2019</t>
+        </is>
+      </c>
+      <c r="B45" s="51" t="inlineStr">
+        <is>
+          <t>TERÇA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C45" s="51" t="inlineStr">
+        <is>
+          <t>2S SAD TATIANNE</t>
+        </is>
+      </c>
+      <c r="D45" s="51" t="n"/>
+    </row>
+    <row r="46">
+      <c r="A46" s="51" t="inlineStr">
+        <is>
+          <t>13/11/2019</t>
+        </is>
+      </c>
+      <c r="B46" s="51" t="inlineStr">
+        <is>
+          <t>QUARTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C46" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN ANDRÉ LUÍZ</t>
+        </is>
+      </c>
+      <c r="D46" s="51" t="n"/>
+    </row>
+    <row r="47">
+      <c r="A47" s="51" t="inlineStr">
+        <is>
+          <t>14/11/2019</t>
+        </is>
+      </c>
+      <c r="B47" s="51" t="inlineStr">
+        <is>
+          <t>QUINTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C47" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN BRUNO</t>
+        </is>
+      </c>
+      <c r="D47" s="51" t="n"/>
+    </row>
+    <row r="48">
+      <c r="A48" s="52" t="inlineStr">
+        <is>
+          <t>15/11/2019</t>
+        </is>
+      </c>
+      <c r="B48" s="52" t="inlineStr">
+        <is>
+          <t>SEXTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C48" s="52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3S SAD JONATHAS </t>
+        </is>
+      </c>
+      <c r="D48" s="51" t="n"/>
+    </row>
+    <row r="49">
+      <c r="A49" s="53" t="inlineStr">
+        <is>
+          <t>16/11/2019</t>
+        </is>
+      </c>
+      <c r="B49" s="53" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="C49" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN SANTOS</t>
+        </is>
+      </c>
+      <c r="D49" s="51" t="n"/>
+    </row>
+    <row r="50">
+      <c r="A50" s="53" t="inlineStr">
+        <is>
+          <t>17/11/2019</t>
+        </is>
+      </c>
+      <c r="B50" s="53" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="C50" s="53" t="inlineStr">
+        <is>
+          <t>2S SAD JULIA</t>
+        </is>
+      </c>
+      <c r="D50" s="51" t="n"/>
+    </row>
+    <row r="51">
+      <c r="A51" s="51" t="inlineStr">
+        <is>
+          <t>18/11/2019</t>
+        </is>
+      </c>
+      <c r="B51" s="51" t="inlineStr">
+        <is>
+          <t>SEGUNDA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C51" s="51" t="inlineStr">
+        <is>
+          <t>2S SCF GISELI</t>
+        </is>
+      </c>
+      <c r="D51" s="51" t="n"/>
+    </row>
+    <row r="52">
+      <c r="A52" s="51" t="inlineStr">
+        <is>
+          <t>19/11/2019</t>
+        </is>
+      </c>
+      <c r="B52" s="51" t="inlineStr">
+        <is>
+          <t>TERÇA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C52" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN SUELEN</t>
+        </is>
+      </c>
+      <c r="D52" s="51" t="n"/>
+    </row>
+    <row r="53">
+      <c r="A53" s="51" t="inlineStr">
+        <is>
+          <t>20/11/2019</t>
+        </is>
+      </c>
+      <c r="B53" s="51" t="inlineStr">
+        <is>
+          <t>QUARTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C53" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN VICTOR</t>
+        </is>
+      </c>
+      <c r="D53" s="51" t="n"/>
+    </row>
+    <row r="54">
+      <c r="A54" s="51" t="inlineStr">
+        <is>
+          <t>21/11/2019</t>
+        </is>
+      </c>
+      <c r="B54" s="51" t="inlineStr">
+        <is>
+          <t>QUINTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C54" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN DAVID</t>
+        </is>
+      </c>
+      <c r="D54" s="51" t="n"/>
+    </row>
+    <row r="55">
+      <c r="A55" s="52" t="inlineStr">
+        <is>
+          <t>22/11/2019</t>
+        </is>
+      </c>
+      <c r="B55" s="52" t="inlineStr">
+        <is>
+          <t>SEXTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C55" s="52" t="inlineStr">
+        <is>
+          <t>3S SIN LEON</t>
+        </is>
+      </c>
+      <c r="D55" s="51" t="n"/>
+    </row>
+    <row r="56">
+      <c r="A56" s="53" t="inlineStr">
+        <is>
+          <t>23/11/2019</t>
+        </is>
+      </c>
+      <c r="B56" s="53" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="C56" s="53" t="inlineStr">
+        <is>
+          <t>2S BET ALMEIDA</t>
+        </is>
+      </c>
+      <c r="D56" s="51" t="n"/>
+    </row>
+    <row r="57">
+      <c r="A57" s="53" t="inlineStr">
+        <is>
+          <t>24/11/2019</t>
+        </is>
+      </c>
+      <c r="B57" s="53" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="C57" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN MIRANDA</t>
+        </is>
+      </c>
+      <c r="D57" s="51" t="n"/>
+    </row>
+    <row r="58">
+      <c r="A58" s="51" t="inlineStr">
+        <is>
+          <t>25/11/2019</t>
+        </is>
+      </c>
+      <c r="B58" s="51" t="inlineStr">
+        <is>
+          <t>SEGUNDA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C58" s="51" t="inlineStr">
+        <is>
+          <t>1S SAD CLAUDINO</t>
+        </is>
+      </c>
+      <c r="D58" s="51" t="n"/>
+    </row>
+    <row r="59">
+      <c r="A59" s="51" t="inlineStr">
+        <is>
+          <t>26/11/2019</t>
+        </is>
+      </c>
+      <c r="B59" s="51" t="inlineStr">
+        <is>
+          <t>TERÇA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C59" s="51" t="inlineStr">
+        <is>
+          <t>1S SGS ANDERSON</t>
+        </is>
+      </c>
+      <c r="D59" s="51" t="n"/>
+    </row>
+    <row r="60">
+      <c r="A60" s="51" t="inlineStr">
+        <is>
+          <t>27/11/2019</t>
+        </is>
+      </c>
+      <c r="B60" s="51" t="inlineStr">
+        <is>
+          <t>QUARTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C60" s="51" t="inlineStr">
+        <is>
+          <t>3S SIN CAMPOS</t>
+        </is>
+      </c>
+      <c r="D60" s="51" t="n"/>
+    </row>
+    <row r="61">
+      <c r="A61" s="51" t="inlineStr">
+        <is>
+          <t>28/11/2019</t>
+        </is>
+      </c>
+      <c r="B61" s="51" t="inlineStr">
+        <is>
+          <t>QUINTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C61" s="51" t="inlineStr">
+        <is>
+          <t>3S SIN PERROTE</t>
+        </is>
+      </c>
+      <c r="D61" s="51" t="n"/>
+    </row>
+    <row r="62">
+      <c r="A62" s="52" t="inlineStr">
+        <is>
+          <t>29/11/2019</t>
+        </is>
+      </c>
+      <c r="B62" s="52" t="inlineStr">
+        <is>
+          <t>SEXTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C62" s="52" t="inlineStr">
+        <is>
+          <t>3S SIN FERRAZ</t>
+        </is>
+      </c>
+      <c r="D62" s="51" t="n"/>
+    </row>
+    <row r="63">
+      <c r="A63" s="53" t="inlineStr">
+        <is>
+          <t>30/11/2019</t>
+        </is>
+      </c>
+      <c r="B63" s="53" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="C63" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN ALAN</t>
+        </is>
+      </c>
+      <c r="D63" s="51" t="n"/>
+    </row>
+    <row r="64">
+      <c r="A64" s="53" t="inlineStr">
+        <is>
+          <t>01/12/2019</t>
+        </is>
+      </c>
+      <c r="B64" s="53" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="C64" s="53" t="inlineStr">
+        <is>
+          <t>2S SAD DANIELA FURTADO</t>
+        </is>
+      </c>
+      <c r="D64" s="51" t="n"/>
+    </row>
+    <row r="65">
+      <c r="A65" s="51" t="inlineStr">
+        <is>
+          <t>02/12/2019</t>
+        </is>
+      </c>
+      <c r="B65" s="51" t="inlineStr">
+        <is>
+          <t>SEGUNDA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C65" s="51" t="inlineStr">
+        <is>
+          <t>3S SIN JANUÁRIO</t>
+        </is>
+      </c>
+      <c r="D65" s="51" t="n"/>
+    </row>
+    <row r="66">
+      <c r="A66" s="51" t="inlineStr">
+        <is>
+          <t>03/12/2019</t>
+        </is>
+      </c>
+      <c r="B66" s="51" t="inlineStr">
+        <is>
+          <t>TERÇA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C66" s="51" t="inlineStr">
+        <is>
+          <t>3S SIN SOARES</t>
+        </is>
+      </c>
+      <c r="D66" s="51" t="n"/>
+    </row>
+    <row r="67">
+      <c r="A67" s="51" t="inlineStr">
+        <is>
+          <t>04/12/2019</t>
+        </is>
+      </c>
+      <c r="B67" s="51" t="inlineStr">
+        <is>
+          <t>QUARTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C67" s="51" t="inlineStr">
+        <is>
+          <t>3S SIN ZÁCCARO</t>
+        </is>
+      </c>
+      <c r="D67" s="51" t="n"/>
+    </row>
+    <row r="68">
+      <c r="A68" s="51" t="inlineStr">
+        <is>
+          <t>05/12/2019</t>
+        </is>
+      </c>
+      <c r="B68" s="51" t="inlineStr">
+        <is>
+          <t>QUINTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C68" s="51" t="inlineStr">
+        <is>
+          <t>3S SIN ALBINO</t>
+        </is>
+      </c>
+      <c r="D68" s="51" t="n"/>
+    </row>
+    <row r="69">
+      <c r="A69" s="52" t="inlineStr">
+        <is>
+          <t>06/12/2019</t>
+        </is>
+      </c>
+      <c r="B69" s="52" t="inlineStr">
+        <is>
+          <t>SEXTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C69" s="52" t="inlineStr">
+        <is>
+          <t>3S SIN MOTTA</t>
+        </is>
+      </c>
+      <c r="D69" s="51" t="n"/>
+    </row>
+    <row r="70">
+      <c r="A70" s="53" t="inlineStr">
+        <is>
+          <t>07/12/2019</t>
+        </is>
+      </c>
+      <c r="B70" s="53" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="C70" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN ADRIANO</t>
+        </is>
+      </c>
+      <c r="D70" s="51" t="n"/>
+    </row>
+    <row r="71">
+      <c r="A71" s="53" t="inlineStr">
+        <is>
+          <t>08/12/2019</t>
+        </is>
+      </c>
+      <c r="B71" s="53" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="C71" s="53" t="inlineStr">
+        <is>
+          <t>2S BET CLÓVIS</t>
+        </is>
+      </c>
+      <c r="D71" s="51" t="n"/>
+    </row>
+    <row r="72">
+      <c r="A72" s="51" t="inlineStr">
+        <is>
+          <t>09/12/2019</t>
+        </is>
+      </c>
+      <c r="B72" s="51" t="inlineStr">
+        <is>
+          <t>SEGUNDA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C72" s="51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3S SAD JONATHAS </t>
+        </is>
+      </c>
+      <c r="D72" s="51" t="n"/>
+    </row>
+    <row r="73">
+      <c r="A73" s="51" t="inlineStr">
+        <is>
+          <t>10/12/2019</t>
+        </is>
+      </c>
+      <c r="B73" s="51" t="inlineStr">
+        <is>
+          <t>TERÇA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C73" s="51" t="inlineStr">
+        <is>
+          <t>3S SIN LEON</t>
+        </is>
+      </c>
+      <c r="D73" s="51" t="n"/>
+    </row>
+    <row r="74">
+      <c r="A74" s="51" t="inlineStr">
+        <is>
+          <t>11/12/2019</t>
+        </is>
+      </c>
+      <c r="B74" s="51" t="inlineStr">
+        <is>
+          <t>QUARTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C74" s="51" t="inlineStr">
+        <is>
+          <t>3S SIN FERRAZ</t>
+        </is>
+      </c>
+      <c r="D74" s="51" t="n"/>
+    </row>
+    <row r="75">
+      <c r="A75" s="51" t="inlineStr">
+        <is>
+          <t>12/12/2019</t>
+        </is>
+      </c>
+      <c r="B75" s="51" t="inlineStr">
+        <is>
+          <t>QUINTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C75" s="51" t="inlineStr">
+        <is>
+          <t>3S SIN MOTTA</t>
+        </is>
+      </c>
+      <c r="D75" s="51" t="n"/>
+    </row>
+    <row r="76">
+      <c r="A76" s="52" t="inlineStr">
+        <is>
+          <t>13/12/2019</t>
+        </is>
+      </c>
+      <c r="B76" s="52" t="inlineStr">
+        <is>
+          <t>SEXTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C76" s="52" t="inlineStr">
+        <is>
+          <t>3S SIN SANTOS</t>
+        </is>
+      </c>
+      <c r="D76" s="51" t="n"/>
+    </row>
+    <row r="77">
+      <c r="A77" s="53" t="inlineStr">
+        <is>
+          <t>14/12/2019</t>
+        </is>
+      </c>
+      <c r="B77" s="53" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="C77" s="53" t="inlineStr">
+        <is>
+          <t>2S SAD LEITE</t>
+        </is>
+      </c>
+      <c r="D77" s="51" t="n"/>
+    </row>
+    <row r="78">
+      <c r="A78" s="53" t="inlineStr">
+        <is>
+          <t>15/12/2019</t>
+        </is>
+      </c>
+      <c r="B78" s="53" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="C78" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN ÉDER</t>
+        </is>
+      </c>
+      <c r="D78" s="51" t="n"/>
+    </row>
+    <row r="79">
+      <c r="A79" s="51" t="inlineStr">
+        <is>
+          <t>16/12/2019</t>
+        </is>
+      </c>
+      <c r="B79" s="51" t="inlineStr">
+        <is>
+          <t>SEGUNDA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C79" s="51" t="inlineStr">
+        <is>
+          <t>3S SIN SANTOS</t>
+        </is>
+      </c>
+      <c r="D79" s="51" t="n"/>
+    </row>
+    <row r="80">
+      <c r="A80" s="51" t="inlineStr">
+        <is>
+          <t>17/12/2019</t>
+        </is>
+      </c>
+      <c r="B80" s="51" t="inlineStr">
+        <is>
+          <t>TERÇA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C80" s="51" t="inlineStr">
+        <is>
+          <t>2S SAD JULIA</t>
+        </is>
+      </c>
+      <c r="D80" s="51" t="n"/>
+    </row>
+    <row r="81">
+      <c r="A81" s="51" t="inlineStr">
+        <is>
+          <t>18/12/2019</t>
+        </is>
+      </c>
+      <c r="B81" s="51" t="inlineStr">
+        <is>
+          <t>QUARTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C81" s="51" t="inlineStr">
+        <is>
+          <t>2S BET ALMEIDA</t>
+        </is>
+      </c>
+      <c r="D81" s="51" t="n"/>
+    </row>
+    <row r="82">
+      <c r="A82" s="51" t="inlineStr">
+        <is>
+          <t>19/12/2019</t>
+        </is>
+      </c>
+      <c r="B82" s="51" t="inlineStr">
+        <is>
+          <t>QUINTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C82" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN MIRANDA</t>
+        </is>
+      </c>
+      <c r="D82" s="51" t="n"/>
+    </row>
+    <row r="83">
+      <c r="A83" s="52" t="inlineStr">
+        <is>
+          <t>20/12/2019</t>
+        </is>
+      </c>
+      <c r="B83" s="52" t="inlineStr">
+        <is>
+          <t>SEXTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C83" s="52" t="inlineStr">
+        <is>
+          <t>2S SAD JULIA</t>
+        </is>
+      </c>
+      <c r="D83" s="51" t="n"/>
+    </row>
+    <row r="84">
+      <c r="A84" s="53" t="inlineStr">
+        <is>
+          <t>21/12/2019</t>
+        </is>
+      </c>
+      <c r="B84" s="53" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="C84" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN RODRIGUES</t>
+        </is>
+      </c>
+      <c r="D84" s="51" t="n"/>
+    </row>
+    <row r="85">
+      <c r="A85" s="53" t="inlineStr">
+        <is>
+          <t>22/12/2019</t>
+        </is>
+      </c>
+      <c r="B85" s="53" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="C85" s="53" t="inlineStr">
+        <is>
+          <t>2S SAD CALIXTO</t>
+        </is>
+      </c>
+      <c r="D85" s="51" t="n"/>
+    </row>
+    <row r="86">
+      <c r="A86" s="51" t="inlineStr">
+        <is>
+          <t>23/12/2019</t>
+        </is>
+      </c>
+      <c r="B86" s="51" t="inlineStr">
+        <is>
+          <t>SEGUNDA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C86" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN ALAN</t>
+        </is>
+      </c>
+      <c r="D86" s="51" t="n"/>
+    </row>
+    <row r="87">
+      <c r="A87" s="54" t="inlineStr">
+        <is>
+          <t>24/12/2019</t>
+        </is>
+      </c>
+      <c r="B87" s="54" t="inlineStr">
+        <is>
+          <t>TERÇA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C87" s="54" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3S SAD JONATHAS </t>
+        </is>
+      </c>
+      <c r="D87" s="51" t="n"/>
+    </row>
+    <row r="88">
+      <c r="A88" s="54" t="inlineStr">
+        <is>
+          <t>25/12/2019</t>
+        </is>
+      </c>
+      <c r="B88" s="54" t="inlineStr">
+        <is>
+          <t>QUARTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C88" s="54" t="inlineStr">
+        <is>
+          <t>3S SIN LEON</t>
+        </is>
+      </c>
+      <c r="D88" s="51" t="n"/>
+    </row>
+    <row r="89">
+      <c r="A89" s="51" t="inlineStr">
+        <is>
+          <t>26/12/2019</t>
+        </is>
+      </c>
+      <c r="B89" s="51" t="inlineStr">
+        <is>
+          <t>QUINTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C89" s="51" t="inlineStr">
+        <is>
+          <t>2S SAD DANIELA FURTADO</t>
+        </is>
+      </c>
+      <c r="D89" s="51" t="n"/>
+    </row>
+    <row r="90">
+      <c r="A90" s="52" t="inlineStr">
+        <is>
+          <t>27/12/2019</t>
+        </is>
+      </c>
+      <c r="B90" s="52" t="inlineStr">
+        <is>
+          <t>SEXTA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C90" s="52" t="inlineStr">
+        <is>
+          <t>2S BET ALMEIDA</t>
+        </is>
+      </c>
+      <c r="D90" s="51" t="n"/>
+    </row>
+    <row r="91">
+      <c r="A91" s="53" t="inlineStr">
+        <is>
+          <t>28/12/2019</t>
+        </is>
+      </c>
+      <c r="B91" s="53" t="inlineStr">
+        <is>
+          <t>SÁBADO</t>
+        </is>
+      </c>
+      <c r="C91" s="53" t="inlineStr">
+        <is>
+          <t>2S SEL DIMAS</t>
+        </is>
+      </c>
+      <c r="D91" s="51" t="n"/>
+    </row>
+    <row r="92">
+      <c r="A92" s="53" t="inlineStr">
+        <is>
+          <t>29/12/2019</t>
+        </is>
+      </c>
+      <c r="B92" s="53" t="inlineStr">
+        <is>
+          <t>DOMINGO</t>
+        </is>
+      </c>
+      <c r="C92" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN TADEU</t>
+        </is>
+      </c>
+      <c r="D92" s="51" t="n"/>
+    </row>
+    <row r="93">
+      <c r="A93" s="51" t="inlineStr">
+        <is>
+          <t>30/12/2019</t>
+        </is>
+      </c>
+      <c r="B93" s="51" t="inlineStr">
+        <is>
+          <t>SEGUNDA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C93" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN ADRIANO</t>
+        </is>
+      </c>
+      <c r="D93" s="51" t="n"/>
+    </row>
+    <row r="94">
+      <c r="A94" s="51" t="inlineStr">
+        <is>
+          <t>31/12/2019</t>
+        </is>
+      </c>
+      <c r="B94" s="51" t="inlineStr">
+        <is>
+          <t>TERÇA-FEIRA</t>
+        </is>
+      </c>
+      <c r="C94" s="51" t="inlineStr">
+        <is>
+          <t>2S BET CLÓVIS</t>
+        </is>
+      </c>
+      <c r="D94" s="51" t="n"/>
+    </row>
+    <row r="95"/>
+    <row r="96">
+      <c r="C96" s="55" t="n"/>
+    </row>
+    <row r="97">
+      <c r="A97" s="53" t="inlineStr">
+        <is>
+          <t>RESERVAS:</t>
+        </is>
+      </c>
+      <c r="B97" s="56" t="n"/>
+      <c r="C97" s="56" t="n"/>
+      <c r="D97" s="57" t="n"/>
+    </row>
+    <row r="98">
+      <c r="A98" s="53" t="inlineStr">
+        <is>
+          <t>VERMELHA</t>
+        </is>
+      </c>
+      <c r="B98" s="57" t="n"/>
+      <c r="C98" s="52" t="inlineStr">
+        <is>
+          <t>MARROM</t>
+        </is>
+      </c>
+      <c r="D98" s="51" t="inlineStr">
+        <is>
+          <t>PRETA</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="53" t="inlineStr">
+        <is>
+          <t>05/10/2019</t>
+        </is>
+      </c>
+      <c r="B99" s="53" t="inlineStr">
+        <is>
+          <t>2S SAD TATIANNE</t>
+        </is>
+      </c>
+      <c r="C99" s="52" t="inlineStr">
+        <is>
+          <t>2S SIN MIRANDA</t>
+        </is>
+      </c>
+      <c r="D99" s="51" t="inlineStr">
+        <is>
+          <t>2S SAD LEITE</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="53" t="inlineStr">
+        <is>
+          <t>06/10/2019</t>
+        </is>
+      </c>
+      <c r="B100" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN ANDRÉ LUÍZ</t>
+        </is>
+      </c>
+      <c r="C100" s="52" t="inlineStr">
+        <is>
+          <t>2S SIN ALAN</t>
+        </is>
+      </c>
+      <c r="D100" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN ÉDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="53" t="inlineStr">
+        <is>
+          <t>12/10/2019</t>
+        </is>
+      </c>
+      <c r="B101" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN BRUNO</t>
+        </is>
+      </c>
+      <c r="C101" s="52" t="inlineStr">
+        <is>
+          <t>2S SAD DANIELA FURTADO</t>
+        </is>
+      </c>
+      <c r="D101" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN RODRIGUES</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="53" t="inlineStr">
+        <is>
+          <t>13/10/2019</t>
+        </is>
+      </c>
+      <c r="B102" s="53" t="inlineStr">
+        <is>
+          <t>2S SCF GISELI</t>
+        </is>
+      </c>
+      <c r="C102" s="55" t="inlineStr"/>
+      <c r="D102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" s="53" t="inlineStr">
+        <is>
+          <t>19/10/2019</t>
+        </is>
+      </c>
+      <c r="B103" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN SUELEN</t>
+        </is>
+      </c>
+      <c r="C103" s="55" t="inlineStr"/>
+      <c r="D103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" s="53" t="inlineStr">
+        <is>
+          <t>20/10/2019</t>
+        </is>
+      </c>
+      <c r="B104" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN VICTOR</t>
+        </is>
+      </c>
+      <c r="C104" s="55" t="inlineStr"/>
+      <c r="D104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" s="53" t="inlineStr">
+        <is>
           <t>26/10/2019</t>
         </is>
       </c>
-      <c r="B43" s="53" t="inlineStr">
+      <c r="B105" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN DAVID</t>
+        </is>
+      </c>
+      <c r="C105" s="55" t="inlineStr"/>
+      <c r="D105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" s="53" t="inlineStr">
+        <is>
+          <t>27/10/2019</t>
+        </is>
+      </c>
+      <c r="B106" s="53" t="inlineStr">
+        <is>
+          <t>1S SAD CLAUDINO</t>
+        </is>
+      </c>
+      <c r="C106" s="55" t="inlineStr"/>
+      <c r="D106" t="inlineStr"/>
+    </row>
+    <row r="107">
+      <c r="A107" s="53" t="inlineStr">
+        <is>
+          <t>02/11/2019</t>
+        </is>
+      </c>
+      <c r="B107" s="53" t="inlineStr">
+        <is>
+          <t>1S SGS ANDERSON</t>
+        </is>
+      </c>
+      <c r="C107" s="55" t="inlineStr"/>
+      <c r="D107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" s="53" t="inlineStr">
+        <is>
+          <t>03/11/2019</t>
+        </is>
+      </c>
+      <c r="B108" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN CAMPOS</t>
+        </is>
+      </c>
+      <c r="C108" s="55" t="inlineStr"/>
+      <c r="D108" t="inlineStr"/>
+    </row>
+    <row r="109">
+      <c r="A109" s="53" t="inlineStr">
+        <is>
+          <t>09/11/2019</t>
+        </is>
+      </c>
+      <c r="B109" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN PERROTE</t>
+        </is>
+      </c>
+      <c r="C109" s="55" t="inlineStr"/>
+      <c r="D109" t="inlineStr"/>
+    </row>
+    <row r="110">
+      <c r="A110" s="53" t="inlineStr">
+        <is>
+          <t>10/11/2019</t>
+        </is>
+      </c>
+      <c r="B110" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN JANUÁRIO</t>
+        </is>
+      </c>
+      <c r="C110" s="55" t="inlineStr"/>
+      <c r="D110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" s="53" t="inlineStr">
+        <is>
+          <t>16/11/2019</t>
+        </is>
+      </c>
+      <c r="B111" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN VAZ</t>
+        </is>
+      </c>
+      <c r="C111" s="55" t="inlineStr"/>
+      <c r="D111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" s="53" t="inlineStr">
+        <is>
+          <t>17/11/2019</t>
+        </is>
+      </c>
+      <c r="B112" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN SOARES</t>
+        </is>
+      </c>
+      <c r="C112" s="55" t="inlineStr"/>
+      <c r="D112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" s="53" t="inlineStr">
+        <is>
+          <t>23/11/2019</t>
+        </is>
+      </c>
+      <c r="B113" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN ZÁCCARO</t>
+        </is>
+      </c>
+      <c r="C113" s="55" t="inlineStr"/>
+      <c r="D113" t="inlineStr"/>
+    </row>
+    <row r="114">
+      <c r="A114" s="53" t="inlineStr">
+        <is>
+          <t>24/11/2019</t>
+        </is>
+      </c>
+      <c r="B114" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN ALBINO</t>
+        </is>
+      </c>
+      <c r="C114" s="55" t="inlineStr"/>
+      <c r="D114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="53" t="inlineStr">
+        <is>
+          <t>30/11/2019</t>
+        </is>
+      </c>
+      <c r="B115" s="53" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3S SAD JONATHAS </t>
+        </is>
+      </c>
+      <c r="C115" s="55" t="inlineStr"/>
+      <c r="D115" t="inlineStr"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="53" t="inlineStr">
+        <is>
+          <t>01/12/2019</t>
+        </is>
+      </c>
+      <c r="B116" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN LEON</t>
+        </is>
+      </c>
+      <c r="C116" s="55" t="inlineStr"/>
+      <c r="D116" t="inlineStr"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="53" t="inlineStr">
+        <is>
+          <t>07/12/2019</t>
+        </is>
+      </c>
+      <c r="B117" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN FERRAZ</t>
+        </is>
+      </c>
+      <c r="C117" s="55" t="inlineStr"/>
+      <c r="D117" t="inlineStr"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="53" t="inlineStr">
+        <is>
+          <t>08/12/2019</t>
+        </is>
+      </c>
+      <c r="B118" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN SANTOS</t>
+        </is>
+      </c>
+      <c r="C118" s="55" t="inlineStr"/>
+      <c r="D118" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="53" t="inlineStr">
+        <is>
+          <t>14/12/2019</t>
+        </is>
+      </c>
+      <c r="B119" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN PEDROSO</t>
+        </is>
+      </c>
+      <c r="C119" s="55" t="inlineStr"/>
+      <c r="D119" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="53" t="inlineStr">
+        <is>
+          <t>15/12/2019</t>
+        </is>
+      </c>
+      <c r="B120" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN MOTTA</t>
+        </is>
+      </c>
+      <c r="C120" s="55" t="inlineStr"/>
+      <c r="D120" t="inlineStr"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="53" t="inlineStr">
+        <is>
+          <t>21/12/2019</t>
+        </is>
+      </c>
+      <c r="B121" s="53" t="inlineStr">
+        <is>
+          <t>2S BET ALMEIDA</t>
+        </is>
+      </c>
+      <c r="C121" s="55" t="inlineStr"/>
+      <c r="D121" t="inlineStr"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="53" t="inlineStr">
+        <is>
+          <t>22/12/2019</t>
+        </is>
+      </c>
+      <c r="B122" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN MIRANDA</t>
+        </is>
+      </c>
+      <c r="C122" s="55" t="inlineStr"/>
+      <c r="D122" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="53" t="inlineStr">
+        <is>
+          <t>28/12/2019</t>
+        </is>
+      </c>
+      <c r="B123" s="53" t="inlineStr">
         <is>
           <t>2S SAD JULIA</t>
         </is>
       </c>
-      <c r="C43" s="56" t="inlineStr"/>
-      <c r="D43" t="inlineStr"/>
-    </row>
-    <row r="44">
-      <c r="A44" s="53" t="inlineStr">
-        <is>
-          <t>27/10/2019</t>
-        </is>
-      </c>
-      <c r="B44" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN MIRANDA</t>
-        </is>
-      </c>
-      <c r="C44" s="56" t="inlineStr"/>
-      <c r="D44" t="inlineStr"/>
-    </row>
-    <row r="45">
-      <c r="A45" s="57" t="inlineStr">
+      <c r="C123" s="55" t="inlineStr"/>
+      <c r="D123" t="inlineStr"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="53" t="inlineStr">
+        <is>
+          <t>29/12/2019</t>
+        </is>
+      </c>
+      <c r="B124" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN ALAN</t>
+        </is>
+      </c>
+      <c r="C124" s="55" t="inlineStr"/>
+      <c r="D124" t="inlineStr"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="58" t="inlineStr">
         <is>
           <t>São José dos Campos, 13 de agosto de 2019</t>
         </is>
       </c>
-      <c r="B45" s="57" t="n"/>
-      <c r="C45" s="57" t="n"/>
-      <c r="D45" s="57" t="n"/>
-    </row>
-    <row r="46">
-      <c r="A46" s="57" t="n"/>
-      <c r="B46" s="57" t="n"/>
-      <c r="C46" s="57" t="n"/>
-      <c r="D46" s="57" t="n"/>
-    </row>
-    <row r="47">
-      <c r="A47" s="57" t="inlineStr">
-        <is>
-          <t>_____________________________________</t>
-        </is>
-      </c>
-      <c r="B47" s="57" t="n"/>
-      <c r="C47" s="57" t="inlineStr">
-        <is>
-          <t>_____________________________________</t>
-        </is>
-      </c>
-      <c r="D47" s="57" t="n"/>
-    </row>
-    <row r="48">
-      <c r="A48" s="57" t="inlineStr">
+      <c r="B125" s="58" t="n"/>
+      <c r="C125" s="58" t="n"/>
+      <c r="D125" s="58" t="n"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="58" t="n"/>
+      <c r="B126" s="58" t="n"/>
+      <c r="C126" s="58" t="n"/>
+      <c r="D126" s="58" t="n"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="58" t="inlineStr">
+        <is>
+          <t>______________________________________</t>
+        </is>
+      </c>
+      <c r="B127" s="58" t="n"/>
+      <c r="C127" s="58" t="inlineStr">
+        <is>
+          <t>______________________________________</t>
+        </is>
+      </c>
+      <c r="D127" s="58" t="n"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="58" t="inlineStr">
         <is>
           <t>Paulo Roberto JUBINI - 1º Ten Esp Aer SVA</t>
         </is>
       </c>
-      <c r="B48" s="57" t="n"/>
-      <c r="C48" s="57" t="inlineStr">
+      <c r="B128" s="58" t="n"/>
+      <c r="C128" s="58" t="inlineStr">
         <is>
           <t>SOLANGE Ferreira Rodrigues - 1S SAD</t>
         </is>
       </c>
-      <c r="D48" s="57" t="n"/>
-    </row>
-    <row r="49">
-      <c r="A49" s="57" t="inlineStr">
+      <c r="D128" s="58" t="n"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="58" t="inlineStr">
         <is>
           <t>Chefe da Seção de Pessoal do CCA-SJ</t>
         </is>
       </c>
-      <c r="B49" s="57" t="n"/>
-      <c r="C49" s="57" t="inlineStr">
+      <c r="B129" s="58" t="n"/>
+      <c r="C129" s="58" t="inlineStr">
         <is>
           <t>Escalante do CCA-SJ</t>
         </is>
       </c>
-      <c r="D49" s="57" t="n"/>
+      <c r="D129" s="58" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A35:D35"/>
-    <mergeCell ref="A36:B36"/>
+    <mergeCell ref="A97:D97"/>
+    <mergeCell ref="A98:B98"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="A47:B47"/>
-    <mergeCell ref="C47:D47"/>
-    <mergeCell ref="A48:B48"/>
-    <mergeCell ref="C48:D48"/>
-    <mergeCell ref="A49:B49"/>
-    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A127:B127"/>
+    <mergeCell ref="C127:D127"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="C128:D128"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="C129:D129"/>
   </mergeCells>
   <pageMargins bottom="0.5" footer="0.5" header="0.5" left="0.5" right="0.5" top="0.5"/>
 </worksheet>

--- a/Escala.outubro.xlsx
+++ b/Escala.outubro.xlsx
@@ -24,7 +24,7 @@
     <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
     <numFmt formatCode="dd/mm/yyyy" numFmtId="165"/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -204,10 +204,6 @@
       <b val="1"/>
       <color rgb="00FF0000"/>
     </font>
-    <font>
-      <b val="1"/>
-      <color rgb="00800080"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -345,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -466,9 +462,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf applyAlignment="1" borderId="7" fillId="0" fontId="25" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="7" fillId="0" fontId="26" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="24" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -777,7 +770,7 @@
   <dimension ref="A1:CG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15"/>
@@ -797,7 +790,7 @@
         <v>43739</v>
       </c>
       <c r="C1" s="5" t="n">
-        <v>43830</v>
+        <v>43769</v>
       </c>
       <c r="E1" s="41" t="inlineStr">
         <is>
@@ -2251,9 +2244,6 @@
           <t>2S SIN TADEU</t>
         </is>
       </c>
-      <c r="B11" s="49" t="n">
-        <v>43828</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="49" t="inlineStr">
@@ -2261,9 +2251,6 @@
           <t>2S SEL DIMAS</t>
         </is>
       </c>
-      <c r="B12" s="49" t="n">
-        <v>43827</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="49" t="inlineStr">
@@ -2271,9 +2258,6 @@
           <t>2S SAD CALIXTO</t>
         </is>
       </c>
-      <c r="B13" s="49" t="n">
-        <v>43821</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="49" t="inlineStr">
@@ -2281,9 +2265,6 @@
           <t>2S SIN RODRIGUES</t>
         </is>
       </c>
-      <c r="B14" s="49" t="n">
-        <v>43820</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="49" t="inlineStr">
@@ -2291,9 +2272,6 @@
           <t>2S SIN ÉDER</t>
         </is>
       </c>
-      <c r="B15" s="49" t="n">
-        <v>43814</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="49" t="inlineStr">
@@ -2301,9 +2279,6 @@
           <t>2S SAD LEITE</t>
         </is>
       </c>
-      <c r="B16" s="49" t="n">
-        <v>43813</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="49" t="inlineStr">
@@ -2311,9 +2286,6 @@
           <t>2S BET CLÓVIS</t>
         </is>
       </c>
-      <c r="B17" s="49" t="n">
-        <v>43807</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="49" t="inlineStr">
@@ -2321,9 +2293,6 @@
           <t>2S SIN ADRIANO</t>
         </is>
       </c>
-      <c r="B18" s="49" t="n">
-        <v>43806</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="49" t="inlineStr">
@@ -2331,9 +2300,6 @@
           <t>2S SAD DANIELA FURTADO</t>
         </is>
       </c>
-      <c r="B19" s="49" t="n">
-        <v>43800</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="49" t="inlineStr">
@@ -2341,9 +2307,6 @@
           <t>2S SIN ALAN</t>
         </is>
       </c>
-      <c r="B20" s="49" t="n">
-        <v>43799</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="49" t="inlineStr">
@@ -2351,9 +2314,6 @@
           <t>2S SIN MIRANDA</t>
         </is>
       </c>
-      <c r="B21" s="49" t="n">
-        <v>43793</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="49" t="inlineStr">
@@ -2361,9 +2321,6 @@
           <t>2S BET ALMEIDA</t>
         </is>
       </c>
-      <c r="B22" s="49" t="n">
-        <v>43792</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="49" t="inlineStr">
@@ -2371,9 +2328,6 @@
           <t>2S SAD JULIA</t>
         </is>
       </c>
-      <c r="B23" s="49" t="n">
-        <v>43786</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="49" t="inlineStr">
@@ -2381,9 +2335,6 @@
           <t>3S SIN SANTOS</t>
         </is>
       </c>
-      <c r="B24" s="49" t="n">
-        <v>43785</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="49" t="inlineStr">
@@ -2391,9 +2342,6 @@
           <t>3S SIN MOTTA</t>
         </is>
       </c>
-      <c r="B25" s="49" t="n">
-        <v>43779</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="49" t="inlineStr">
@@ -2401,9 +2349,6 @@
           <t>3S SIN PEDROSO</t>
         </is>
       </c>
-      <c r="B26" s="49" t="n">
-        <v>43778</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="49" t="inlineStr">
@@ -2411,18 +2356,12 @@
           <t>3S SIN FERRAZ</t>
         </is>
       </c>
-      <c r="B27" s="49" t="n">
-        <v>43772</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="49" t="inlineStr">
         <is>
           <t>3S SIN LEON</t>
         </is>
-      </c>
-      <c r="B28" s="49" t="n">
-        <v>43771</v>
       </c>
     </row>
     <row r="29">
@@ -2549,9 +2488,6 @@
           <t>1S SGS ANDERSON</t>
         </is>
       </c>
-      <c r="B2" s="49" t="n">
-        <v>43795</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="49" t="inlineStr">
@@ -2559,9 +2495,6 @@
           <t>1S SAD CLAUDINO</t>
         </is>
       </c>
-      <c r="B3" s="49" t="n">
-        <v>43794</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="49" t="inlineStr">
@@ -2569,9 +2502,6 @@
           <t>2S SIN DAVID</t>
         </is>
       </c>
-      <c r="B4" s="49" t="n">
-        <v>43790</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="49" t="inlineStr">
@@ -2579,9 +2509,6 @@
           <t>2S SIN VICTOR</t>
         </is>
       </c>
-      <c r="B5" s="49" t="n">
-        <v>43789</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="49" t="inlineStr">
@@ -2589,9 +2516,6 @@
           <t>2S SIN SUELEN</t>
         </is>
       </c>
-      <c r="B6" s="49" t="n">
-        <v>43788</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="49" t="inlineStr">
@@ -2599,9 +2523,6 @@
           <t>2S SCF GISELI</t>
         </is>
       </c>
-      <c r="B7" s="49" t="n">
-        <v>43787</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="49" t="inlineStr">
@@ -2609,9 +2530,6 @@
           <t>2S SIN BRUNO</t>
         </is>
       </c>
-      <c r="B8" s="49" t="n">
-        <v>43783</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="49" t="inlineStr">
@@ -2619,9 +2537,6 @@
           <t>2S SIN ANDRÉ LUÍZ</t>
         </is>
       </c>
-      <c r="B9" s="49" t="n">
-        <v>43782</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="49" t="inlineStr">
@@ -2629,9 +2544,6 @@
           <t>2S SAD TATIANNE</t>
         </is>
       </c>
-      <c r="B10" s="49" t="n">
-        <v>43781</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="49" t="inlineStr">
@@ -2639,9 +2551,6 @@
           <t>2S SIN TADEU</t>
         </is>
       </c>
-      <c r="B11" s="49" t="n">
-        <v>43780</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="49" t="inlineStr">
@@ -2649,9 +2558,6 @@
           <t>2S SEL DIMAS</t>
         </is>
       </c>
-      <c r="B12" s="49" t="n">
-        <v>43776</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="49" t="inlineStr">
@@ -2659,9 +2565,6 @@
           <t>2S SAD CALIXTO</t>
         </is>
       </c>
-      <c r="B13" s="49" t="n">
-        <v>43775</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="49" t="inlineStr">
@@ -2669,9 +2572,6 @@
           <t>2S SIN RODRIGUES</t>
         </is>
       </c>
-      <c r="B14" s="49" t="n">
-        <v>43774</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="49" t="inlineStr">
@@ -2679,9 +2579,6 @@
           <t>2S SIN ÉDER</t>
         </is>
       </c>
-      <c r="B15" s="49" t="n">
-        <v>43773</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="49" t="inlineStr">
@@ -2702,9 +2599,6 @@
       <c r="B17" s="49" t="n">
         <v>43768</v>
       </c>
-      <c r="C17" s="49" t="n">
-        <v>43830</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="49" t="inlineStr">
@@ -2715,9 +2609,6 @@
       <c r="B18" s="49" t="n">
         <v>43767</v>
       </c>
-      <c r="C18" s="49" t="n">
-        <v>43829</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="49" t="inlineStr">
@@ -2728,9 +2619,6 @@
       <c r="B19" s="49" t="n">
         <v>43766</v>
       </c>
-      <c r="C19" s="49" t="n">
-        <v>43825</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="49" t="inlineStr">
@@ -2741,9 +2629,6 @@
       <c r="B20" s="49" t="n">
         <v>43762</v>
       </c>
-      <c r="C20" s="49" t="n">
-        <v>43822</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="49" t="inlineStr">
@@ -2754,9 +2639,6 @@
       <c r="B21" s="49" t="n">
         <v>43761</v>
       </c>
-      <c r="C21" s="49" t="n">
-        <v>43818</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="49" t="inlineStr">
@@ -2767,9 +2649,6 @@
       <c r="B22" s="49" t="n">
         <v>43760</v>
       </c>
-      <c r="C22" s="49" t="n">
-        <v>43817</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="49" t="inlineStr">
@@ -2780,9 +2659,6 @@
       <c r="B23" s="49" t="n">
         <v>43759</v>
       </c>
-      <c r="C23" s="49" t="n">
-        <v>43816</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="49" t="inlineStr">
@@ -2793,9 +2669,6 @@
       <c r="B24" s="49" t="n">
         <v>43755</v>
       </c>
-      <c r="C24" s="49" t="n">
-        <v>43815</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="49" t="inlineStr">
@@ -2806,9 +2679,6 @@
       <c r="B25" s="49" t="n">
         <v>43754</v>
       </c>
-      <c r="C25" s="49" t="n">
-        <v>43811</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="49" t="inlineStr">
@@ -2826,9 +2696,6 @@
       <c r="B27" s="49" t="n">
         <v>43753</v>
       </c>
-      <c r="C27" s="49" t="n">
-        <v>43810</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="49" t="inlineStr">
@@ -2839,9 +2706,6 @@
       <c r="B28" s="49" t="n">
         <v>43752</v>
       </c>
-      <c r="C28" s="49" t="n">
-        <v>43809</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="49" t="inlineStr">
@@ -2852,9 +2716,6 @@
       <c r="B29" s="49" t="n">
         <v>43748</v>
       </c>
-      <c r="C29" s="49" t="n">
-        <v>43808</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="49" t="inlineStr">
@@ -2865,9 +2726,6 @@
       <c r="B30" s="49" t="n">
         <v>43747</v>
       </c>
-      <c r="C30" s="49" t="n">
-        <v>43804</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="49" t="inlineStr">
@@ -2878,9 +2736,6 @@
       <c r="B31" s="49" t="n">
         <v>43746</v>
       </c>
-      <c r="C31" s="49" t="n">
-        <v>43803</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="49" t="inlineStr">
@@ -2891,9 +2746,6 @@
       <c r="B32" s="49" t="n">
         <v>43745</v>
       </c>
-      <c r="C32" s="49" t="n">
-        <v>43802</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="49" t="inlineStr">
@@ -2904,9 +2756,6 @@
       <c r="B33" s="49" t="n">
         <v>43741</v>
       </c>
-      <c r="C33" s="49" t="n">
-        <v>43801</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="49" t="inlineStr">
@@ -2924,9 +2773,6 @@
       <c r="B35" s="49" t="n">
         <v>43740</v>
       </c>
-      <c r="C35" s="49" t="n">
-        <v>43797</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="49" t="inlineStr">
@@ -2936,9 +2782,6 @@
       </c>
       <c r="B36" s="49" t="n">
         <v>43739</v>
-      </c>
-      <c r="C36" s="49" t="n">
-        <v>43796</v>
       </c>
     </row>
   </sheetData>
@@ -3124,9 +2967,6 @@
           <t>2S BET ALMEIDA</t>
         </is>
       </c>
-      <c r="B22" s="49" t="n">
-        <v>43826</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="49" t="inlineStr">
@@ -3134,9 +2974,6 @@
           <t>2S SAD JULIA</t>
         </is>
       </c>
-      <c r="B23" s="49" t="n">
-        <v>43819</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="49" t="inlineStr">
@@ -3144,9 +2981,6 @@
           <t>3S SIN SANTOS</t>
         </is>
       </c>
-      <c r="B24" s="49" t="n">
-        <v>43812</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="49" t="inlineStr">
@@ -3154,9 +2988,6 @@
           <t>3S SIN MOTTA</t>
         </is>
       </c>
-      <c r="B25" s="49" t="n">
-        <v>43805</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="49" t="inlineStr">
@@ -3171,9 +3002,6 @@
           <t>3S SIN FERRAZ</t>
         </is>
       </c>
-      <c r="B27" s="49" t="n">
-        <v>43798</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="49" t="inlineStr">
@@ -3181,9 +3009,6 @@
           <t>3S SIN LEON</t>
         </is>
       </c>
-      <c r="B28" s="49" t="n">
-        <v>43791</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="49" t="inlineStr">
@@ -3191,9 +3016,6 @@
           <t xml:space="preserve">3S SAD JONATHAS </t>
         </is>
       </c>
-      <c r="B29" s="49" t="n">
-        <v>43784</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="49" t="inlineStr">
@@ -3201,18 +3023,12 @@
           <t>3S SIN ALBINO</t>
         </is>
       </c>
-      <c r="B30" s="49" t="n">
-        <v>43777</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="49" t="inlineStr">
         <is>
           <t>3S SIN ZÁCCARO</t>
         </is>
-      </c>
-      <c r="B31" s="49" t="n">
-        <v>43770</v>
       </c>
     </row>
     <row r="32">
@@ -3605,7 +3421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D129"/>
+  <dimension ref="A1:D50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4206,1594 +4022,244 @@
       </c>
       <c r="D33" s="51" t="n"/>
     </row>
-    <row r="34">
-      <c r="A34" s="52" t="inlineStr">
-        <is>
-          <t>01/11/2019</t>
-        </is>
-      </c>
-      <c r="B34" s="52" t="inlineStr">
-        <is>
-          <t>SEXTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C34" s="52" t="inlineStr">
+    <row r="34"/>
+    <row r="35">
+      <c r="C35" s="54" t="n"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="51" t="inlineStr">
+        <is>
+          <t>RESERVAS:</t>
+        </is>
+      </c>
+      <c r="B36" s="55" t="n"/>
+      <c r="C36" s="55" t="n"/>
+      <c r="D36" s="56" t="n"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="53" t="inlineStr">
+        <is>
+          <t>VERMELHA</t>
+        </is>
+      </c>
+      <c r="B37" s="56" t="n"/>
+      <c r="C37" s="52" t="inlineStr">
+        <is>
+          <t>MARROM</t>
+        </is>
+      </c>
+      <c r="D37" s="51" t="inlineStr">
+        <is>
+          <t>PRETA</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="53" t="inlineStr">
+        <is>
+          <t>05/10/2019</t>
+        </is>
+      </c>
+      <c r="B38" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN LEON</t>
+        </is>
+      </c>
+      <c r="C38" s="52" t="inlineStr">
         <is>
           <t>3S SIN ZÁCCARO</t>
         </is>
       </c>
-      <c r="D34" s="51" t="n"/>
-    </row>
-    <row r="35">
-      <c r="A35" s="53" t="inlineStr">
-        <is>
-          <t>02/11/2019</t>
-        </is>
-      </c>
-      <c r="B35" s="53" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="C35" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN LEON</t>
-        </is>
-      </c>
-      <c r="D35" s="51" t="n"/>
-    </row>
-    <row r="36">
-      <c r="A36" s="53" t="inlineStr">
-        <is>
-          <t>03/11/2019</t>
-        </is>
-      </c>
-      <c r="B36" s="53" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="C36" s="53" t="inlineStr">
+      <c r="D38" s="51" t="inlineStr">
+        <is>
+          <t>2S SIN ÉDER</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="53" t="inlineStr">
+        <is>
+          <t>06/10/2019</t>
+        </is>
+      </c>
+      <c r="B39" s="53" t="inlineStr">
         <is>
           <t>3S SIN FERRAZ</t>
         </is>
       </c>
-      <c r="D36" s="51" t="n"/>
-    </row>
-    <row r="37">
-      <c r="A37" s="51" t="inlineStr">
-        <is>
-          <t>04/11/2019</t>
-        </is>
-      </c>
-      <c r="B37" s="51" t="inlineStr">
-        <is>
-          <t>SEGUNDA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C37" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN ÉDER</t>
-        </is>
-      </c>
-      <c r="D37" s="51" t="n"/>
-    </row>
-    <row r="38">
-      <c r="A38" s="51" t="inlineStr">
-        <is>
-          <t>05/11/2019</t>
-        </is>
-      </c>
-      <c r="B38" s="51" t="inlineStr">
-        <is>
-          <t>TERÇA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C38" s="51" t="inlineStr">
+      <c r="C39" s="52" t="inlineStr">
+        <is>
+          <t>3S SIN ALBINO</t>
+        </is>
+      </c>
+      <c r="D39" s="51" t="inlineStr">
         <is>
           <t>2S SIN RODRIGUES</t>
         </is>
       </c>
-      <c r="D38" s="51" t="n"/>
-    </row>
-    <row r="39">
-      <c r="A39" s="51" t="inlineStr">
-        <is>
-          <t>06/11/2019</t>
-        </is>
-      </c>
-      <c r="B39" s="51" t="inlineStr">
-        <is>
-          <t>QUARTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C39" s="51" t="inlineStr">
+    </row>
+    <row r="40">
+      <c r="A40" s="53" t="inlineStr">
+        <is>
+          <t>12/10/2019</t>
+        </is>
+      </c>
+      <c r="B40" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN PEDROSO</t>
+        </is>
+      </c>
+      <c r="C40" s="52" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3S SAD JONATHAS </t>
+        </is>
+      </c>
+      <c r="D40" s="51" t="inlineStr">
         <is>
           <t>2S SAD CALIXTO</t>
         </is>
       </c>
-      <c r="D39" s="51" t="n"/>
-    </row>
-    <row r="40">
-      <c r="A40" s="51" t="inlineStr">
-        <is>
-          <t>07/11/2019</t>
-        </is>
-      </c>
-      <c r="B40" s="51" t="inlineStr">
-        <is>
-          <t>QUINTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C40" s="51" t="inlineStr">
-        <is>
-          <t>2S SEL DIMAS</t>
-        </is>
-      </c>
-      <c r="D40" s="51" t="n"/>
     </row>
     <row r="41">
-      <c r="A41" s="52" t="inlineStr">
-        <is>
-          <t>08/11/2019</t>
-        </is>
-      </c>
-      <c r="B41" s="52" t="inlineStr">
-        <is>
-          <t>SEXTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C41" s="52" t="inlineStr">
-        <is>
-          <t>3S SIN ALBINO</t>
-        </is>
-      </c>
-      <c r="D41" s="51" t="n"/>
+      <c r="A41" s="53" t="inlineStr">
+        <is>
+          <t>13/10/2019</t>
+        </is>
+      </c>
+      <c r="B41" s="53" t="inlineStr">
+        <is>
+          <t>3S SIN MOTTA</t>
+        </is>
+      </c>
+      <c r="C41" s="54" t="inlineStr"/>
+      <c r="D41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="53" t="inlineStr">
         <is>
-          <t>09/11/2019</t>
+          <t>19/10/2019</t>
         </is>
       </c>
       <c r="B42" s="53" t="inlineStr">
         <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="C42" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN PEDROSO</t>
-        </is>
-      </c>
-      <c r="D42" s="51" t="n"/>
+          <t>2S BET ALMEIDA</t>
+        </is>
+      </c>
+      <c r="C42" s="54" t="inlineStr"/>
+      <c r="D42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="53" t="inlineStr">
         <is>
-          <t>10/11/2019</t>
+          <t>20/10/2019</t>
         </is>
       </c>
       <c r="B43" s="53" t="inlineStr">
         <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="C43" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN MOTTA</t>
-        </is>
-      </c>
-      <c r="D43" s="51" t="n"/>
+          <t>3S SIN SANTOS</t>
+        </is>
+      </c>
+      <c r="C43" s="54" t="inlineStr"/>
+      <c r="D43" t="inlineStr"/>
     </row>
     <row r="44">
-      <c r="A44" s="51" t="inlineStr">
-        <is>
-          <t>11/11/2019</t>
-        </is>
-      </c>
-      <c r="B44" s="51" t="inlineStr">
-        <is>
-          <t>SEGUNDA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C44" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN TADEU</t>
-        </is>
-      </c>
-      <c r="D44" s="51" t="n"/>
+      <c r="A44" s="53" t="inlineStr">
+        <is>
+          <t>26/10/2019</t>
+        </is>
+      </c>
+      <c r="B44" s="53" t="inlineStr">
+        <is>
+          <t>2S SAD JULIA</t>
+        </is>
+      </c>
+      <c r="C44" s="54" t="inlineStr"/>
+      <c r="D44" t="inlineStr"/>
     </row>
     <row r="45">
-      <c r="A45" s="51" t="inlineStr">
-        <is>
-          <t>12/11/2019</t>
-        </is>
-      </c>
-      <c r="B45" s="51" t="inlineStr">
-        <is>
-          <t>TERÇA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C45" s="51" t="inlineStr">
-        <is>
-          <t>2S SAD TATIANNE</t>
-        </is>
-      </c>
-      <c r="D45" s="51" t="n"/>
+      <c r="A45" s="53" t="inlineStr">
+        <is>
+          <t>27/10/2019</t>
+        </is>
+      </c>
+      <c r="B45" s="53" t="inlineStr">
+        <is>
+          <t>2S SIN MIRANDA</t>
+        </is>
+      </c>
+      <c r="C45" s="54" t="inlineStr"/>
+      <c r="D45" t="inlineStr"/>
     </row>
     <row r="46">
-      <c r="A46" s="51" t="inlineStr">
-        <is>
-          <t>13/11/2019</t>
-        </is>
-      </c>
-      <c r="B46" s="51" t="inlineStr">
-        <is>
-          <t>QUARTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C46" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN ANDRÉ LUÍZ</t>
-        </is>
-      </c>
-      <c r="D46" s="51" t="n"/>
+      <c r="A46" s="57" t="inlineStr">
+        <is>
+          <t>São José dos Campos, 13 de agosto de 2019</t>
+        </is>
+      </c>
+      <c r="B46" s="57" t="n"/>
+      <c r="C46" s="57" t="n"/>
+      <c r="D46" s="57" t="n"/>
     </row>
     <row r="47">
-      <c r="A47" s="51" t="inlineStr">
-        <is>
-          <t>14/11/2019</t>
-        </is>
-      </c>
-      <c r="B47" s="51" t="inlineStr">
-        <is>
-          <t>QUINTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C47" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN BRUNO</t>
-        </is>
-      </c>
-      <c r="D47" s="51" t="n"/>
+      <c r="A47" s="57" t="n"/>
+      <c r="B47" s="57" t="n"/>
+      <c r="C47" s="57" t="n"/>
+      <c r="D47" s="57" t="n"/>
     </row>
     <row r="48">
-      <c r="A48" s="52" t="inlineStr">
-        <is>
-          <t>15/11/2019</t>
-        </is>
-      </c>
-      <c r="B48" s="52" t="inlineStr">
-        <is>
-          <t>SEXTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C48" s="52" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3S SAD JONATHAS </t>
-        </is>
-      </c>
-      <c r="D48" s="51" t="n"/>
+      <c r="A48" s="57" t="inlineStr">
+        <is>
+          <t>______________________________________</t>
+        </is>
+      </c>
+      <c r="B48" s="57" t="n"/>
+      <c r="C48" s="57" t="inlineStr">
+        <is>
+          <t>______________________________________</t>
+        </is>
+      </c>
+      <c r="D48" s="57" t="n"/>
     </row>
     <row r="49">
-      <c r="A49" s="53" t="inlineStr">
-        <is>
-          <t>16/11/2019</t>
-        </is>
-      </c>
-      <c r="B49" s="53" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="C49" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN SANTOS</t>
-        </is>
-      </c>
-      <c r="D49" s="51" t="n"/>
+      <c r="A49" s="57" t="inlineStr">
+        <is>
+          <t>Paulo Roberto JUBINI - 1º Ten Esp Aer SVA</t>
+        </is>
+      </c>
+      <c r="B49" s="57" t="n"/>
+      <c r="C49" s="57" t="inlineStr">
+        <is>
+          <t>SOLANGE Ferreira Rodrigues - 1S SAD</t>
+        </is>
+      </c>
+      <c r="D49" s="57" t="n"/>
     </row>
     <row r="50">
-      <c r="A50" s="53" t="inlineStr">
-        <is>
-          <t>17/11/2019</t>
-        </is>
-      </c>
-      <c r="B50" s="53" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="C50" s="53" t="inlineStr">
-        <is>
-          <t>2S SAD JULIA</t>
-        </is>
-      </c>
-      <c r="D50" s="51" t="n"/>
-    </row>
-    <row r="51">
-      <c r="A51" s="51" t="inlineStr">
-        <is>
-          <t>18/11/2019</t>
-        </is>
-      </c>
-      <c r="B51" s="51" t="inlineStr">
-        <is>
-          <t>SEGUNDA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C51" s="51" t="inlineStr">
-        <is>
-          <t>2S SCF GISELI</t>
-        </is>
-      </c>
-      <c r="D51" s="51" t="n"/>
-    </row>
-    <row r="52">
-      <c r="A52" s="51" t="inlineStr">
-        <is>
-          <t>19/11/2019</t>
-        </is>
-      </c>
-      <c r="B52" s="51" t="inlineStr">
-        <is>
-          <t>TERÇA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C52" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN SUELEN</t>
-        </is>
-      </c>
-      <c r="D52" s="51" t="n"/>
-    </row>
-    <row r="53">
-      <c r="A53" s="51" t="inlineStr">
-        <is>
-          <t>20/11/2019</t>
-        </is>
-      </c>
-      <c r="B53" s="51" t="inlineStr">
-        <is>
-          <t>QUARTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C53" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN VICTOR</t>
-        </is>
-      </c>
-      <c r="D53" s="51" t="n"/>
-    </row>
-    <row r="54">
-      <c r="A54" s="51" t="inlineStr">
-        <is>
-          <t>21/11/2019</t>
-        </is>
-      </c>
-      <c r="B54" s="51" t="inlineStr">
-        <is>
-          <t>QUINTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C54" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN DAVID</t>
-        </is>
-      </c>
-      <c r="D54" s="51" t="n"/>
-    </row>
-    <row r="55">
-      <c r="A55" s="52" t="inlineStr">
-        <is>
-          <t>22/11/2019</t>
-        </is>
-      </c>
-      <c r="B55" s="52" t="inlineStr">
-        <is>
-          <t>SEXTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C55" s="52" t="inlineStr">
-        <is>
-          <t>3S SIN LEON</t>
-        </is>
-      </c>
-      <c r="D55" s="51" t="n"/>
-    </row>
-    <row r="56">
-      <c r="A56" s="53" t="inlineStr">
-        <is>
-          <t>23/11/2019</t>
-        </is>
-      </c>
-      <c r="B56" s="53" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="C56" s="53" t="inlineStr">
-        <is>
-          <t>2S BET ALMEIDA</t>
-        </is>
-      </c>
-      <c r="D56" s="51" t="n"/>
-    </row>
-    <row r="57">
-      <c r="A57" s="53" t="inlineStr">
-        <is>
-          <t>24/11/2019</t>
-        </is>
-      </c>
-      <c r="B57" s="53" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="C57" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN MIRANDA</t>
-        </is>
-      </c>
-      <c r="D57" s="51" t="n"/>
-    </row>
-    <row r="58">
-      <c r="A58" s="51" t="inlineStr">
-        <is>
-          <t>25/11/2019</t>
-        </is>
-      </c>
-      <c r="B58" s="51" t="inlineStr">
-        <is>
-          <t>SEGUNDA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C58" s="51" t="inlineStr">
-        <is>
-          <t>1S SAD CLAUDINO</t>
-        </is>
-      </c>
-      <c r="D58" s="51" t="n"/>
-    </row>
-    <row r="59">
-      <c r="A59" s="51" t="inlineStr">
-        <is>
-          <t>26/11/2019</t>
-        </is>
-      </c>
-      <c r="B59" s="51" t="inlineStr">
-        <is>
-          <t>TERÇA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C59" s="51" t="inlineStr">
-        <is>
-          <t>1S SGS ANDERSON</t>
-        </is>
-      </c>
-      <c r="D59" s="51" t="n"/>
-    </row>
-    <row r="60">
-      <c r="A60" s="51" t="inlineStr">
-        <is>
-          <t>27/11/2019</t>
-        </is>
-      </c>
-      <c r="B60" s="51" t="inlineStr">
-        <is>
-          <t>QUARTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C60" s="51" t="inlineStr">
-        <is>
-          <t>3S SIN CAMPOS</t>
-        </is>
-      </c>
-      <c r="D60" s="51" t="n"/>
-    </row>
-    <row r="61">
-      <c r="A61" s="51" t="inlineStr">
-        <is>
-          <t>28/11/2019</t>
-        </is>
-      </c>
-      <c r="B61" s="51" t="inlineStr">
-        <is>
-          <t>QUINTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C61" s="51" t="inlineStr">
-        <is>
-          <t>3S SIN PERROTE</t>
-        </is>
-      </c>
-      <c r="D61" s="51" t="n"/>
-    </row>
-    <row r="62">
-      <c r="A62" s="52" t="inlineStr">
-        <is>
-          <t>29/11/2019</t>
-        </is>
-      </c>
-      <c r="B62" s="52" t="inlineStr">
-        <is>
-          <t>SEXTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C62" s="52" t="inlineStr">
-        <is>
-          <t>3S SIN FERRAZ</t>
-        </is>
-      </c>
-      <c r="D62" s="51" t="n"/>
-    </row>
-    <row r="63">
-      <c r="A63" s="53" t="inlineStr">
-        <is>
-          <t>30/11/2019</t>
-        </is>
-      </c>
-      <c r="B63" s="53" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="C63" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN ALAN</t>
-        </is>
-      </c>
-      <c r="D63" s="51" t="n"/>
-    </row>
-    <row r="64">
-      <c r="A64" s="53" t="inlineStr">
-        <is>
-          <t>01/12/2019</t>
-        </is>
-      </c>
-      <c r="B64" s="53" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="C64" s="53" t="inlineStr">
-        <is>
-          <t>2S SAD DANIELA FURTADO</t>
-        </is>
-      </c>
-      <c r="D64" s="51" t="n"/>
-    </row>
-    <row r="65">
-      <c r="A65" s="51" t="inlineStr">
-        <is>
-          <t>02/12/2019</t>
-        </is>
-      </c>
-      <c r="B65" s="51" t="inlineStr">
-        <is>
-          <t>SEGUNDA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C65" s="51" t="inlineStr">
-        <is>
-          <t>3S SIN JANUÁRIO</t>
-        </is>
-      </c>
-      <c r="D65" s="51" t="n"/>
-    </row>
-    <row r="66">
-      <c r="A66" s="51" t="inlineStr">
-        <is>
-          <t>03/12/2019</t>
-        </is>
-      </c>
-      <c r="B66" s="51" t="inlineStr">
-        <is>
-          <t>TERÇA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C66" s="51" t="inlineStr">
-        <is>
-          <t>3S SIN SOARES</t>
-        </is>
-      </c>
-      <c r="D66" s="51" t="n"/>
-    </row>
-    <row r="67">
-      <c r="A67" s="51" t="inlineStr">
-        <is>
-          <t>04/12/2019</t>
-        </is>
-      </c>
-      <c r="B67" s="51" t="inlineStr">
-        <is>
-          <t>QUARTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C67" s="51" t="inlineStr">
-        <is>
-          <t>3S SIN ZÁCCARO</t>
-        </is>
-      </c>
-      <c r="D67" s="51" t="n"/>
-    </row>
-    <row r="68">
-      <c r="A68" s="51" t="inlineStr">
-        <is>
-          <t>05/12/2019</t>
-        </is>
-      </c>
-      <c r="B68" s="51" t="inlineStr">
-        <is>
-          <t>QUINTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C68" s="51" t="inlineStr">
-        <is>
-          <t>3S SIN ALBINO</t>
-        </is>
-      </c>
-      <c r="D68" s="51" t="n"/>
-    </row>
-    <row r="69">
-      <c r="A69" s="52" t="inlineStr">
-        <is>
-          <t>06/12/2019</t>
-        </is>
-      </c>
-      <c r="B69" s="52" t="inlineStr">
-        <is>
-          <t>SEXTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C69" s="52" t="inlineStr">
-        <is>
-          <t>3S SIN MOTTA</t>
-        </is>
-      </c>
-      <c r="D69" s="51" t="n"/>
-    </row>
-    <row r="70">
-      <c r="A70" s="53" t="inlineStr">
-        <is>
-          <t>07/12/2019</t>
-        </is>
-      </c>
-      <c r="B70" s="53" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="C70" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN ADRIANO</t>
-        </is>
-      </c>
-      <c r="D70" s="51" t="n"/>
-    </row>
-    <row r="71">
-      <c r="A71" s="53" t="inlineStr">
-        <is>
-          <t>08/12/2019</t>
-        </is>
-      </c>
-      <c r="B71" s="53" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="C71" s="53" t="inlineStr">
-        <is>
-          <t>2S BET CLÓVIS</t>
-        </is>
-      </c>
-      <c r="D71" s="51" t="n"/>
-    </row>
-    <row r="72">
-      <c r="A72" s="51" t="inlineStr">
-        <is>
-          <t>09/12/2019</t>
-        </is>
-      </c>
-      <c r="B72" s="51" t="inlineStr">
-        <is>
-          <t>SEGUNDA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C72" s="51" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3S SAD JONATHAS </t>
-        </is>
-      </c>
-      <c r="D72" s="51" t="n"/>
-    </row>
-    <row r="73">
-      <c r="A73" s="51" t="inlineStr">
-        <is>
-          <t>10/12/2019</t>
-        </is>
-      </c>
-      <c r="B73" s="51" t="inlineStr">
-        <is>
-          <t>TERÇA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C73" s="51" t="inlineStr">
-        <is>
-          <t>3S SIN LEON</t>
-        </is>
-      </c>
-      <c r="D73" s="51" t="n"/>
-    </row>
-    <row r="74">
-      <c r="A74" s="51" t="inlineStr">
-        <is>
-          <t>11/12/2019</t>
-        </is>
-      </c>
-      <c r="B74" s="51" t="inlineStr">
-        <is>
-          <t>QUARTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C74" s="51" t="inlineStr">
-        <is>
-          <t>3S SIN FERRAZ</t>
-        </is>
-      </c>
-      <c r="D74" s="51" t="n"/>
-    </row>
-    <row r="75">
-      <c r="A75" s="51" t="inlineStr">
-        <is>
-          <t>12/12/2019</t>
-        </is>
-      </c>
-      <c r="B75" s="51" t="inlineStr">
-        <is>
-          <t>QUINTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C75" s="51" t="inlineStr">
-        <is>
-          <t>3S SIN MOTTA</t>
-        </is>
-      </c>
-      <c r="D75" s="51" t="n"/>
-    </row>
-    <row r="76">
-      <c r="A76" s="52" t="inlineStr">
-        <is>
-          <t>13/12/2019</t>
-        </is>
-      </c>
-      <c r="B76" s="52" t="inlineStr">
-        <is>
-          <t>SEXTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C76" s="52" t="inlineStr">
-        <is>
-          <t>3S SIN SANTOS</t>
-        </is>
-      </c>
-      <c r="D76" s="51" t="n"/>
-    </row>
-    <row r="77">
-      <c r="A77" s="53" t="inlineStr">
-        <is>
-          <t>14/12/2019</t>
-        </is>
-      </c>
-      <c r="B77" s="53" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="C77" s="53" t="inlineStr">
-        <is>
-          <t>2S SAD LEITE</t>
-        </is>
-      </c>
-      <c r="D77" s="51" t="n"/>
-    </row>
-    <row r="78">
-      <c r="A78" s="53" t="inlineStr">
-        <is>
-          <t>15/12/2019</t>
-        </is>
-      </c>
-      <c r="B78" s="53" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="C78" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN ÉDER</t>
-        </is>
-      </c>
-      <c r="D78" s="51" t="n"/>
-    </row>
-    <row r="79">
-      <c r="A79" s="51" t="inlineStr">
-        <is>
-          <t>16/12/2019</t>
-        </is>
-      </c>
-      <c r="B79" s="51" t="inlineStr">
-        <is>
-          <t>SEGUNDA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C79" s="51" t="inlineStr">
-        <is>
-          <t>3S SIN SANTOS</t>
-        </is>
-      </c>
-      <c r="D79" s="51" t="n"/>
-    </row>
-    <row r="80">
-      <c r="A80" s="51" t="inlineStr">
-        <is>
-          <t>17/12/2019</t>
-        </is>
-      </c>
-      <c r="B80" s="51" t="inlineStr">
-        <is>
-          <t>TERÇA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C80" s="51" t="inlineStr">
-        <is>
-          <t>2S SAD JULIA</t>
-        </is>
-      </c>
-      <c r="D80" s="51" t="n"/>
-    </row>
-    <row r="81">
-      <c r="A81" s="51" t="inlineStr">
-        <is>
-          <t>18/12/2019</t>
-        </is>
-      </c>
-      <c r="B81" s="51" t="inlineStr">
-        <is>
-          <t>QUARTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C81" s="51" t="inlineStr">
-        <is>
-          <t>2S BET ALMEIDA</t>
-        </is>
-      </c>
-      <c r="D81" s="51" t="n"/>
-    </row>
-    <row r="82">
-      <c r="A82" s="51" t="inlineStr">
-        <is>
-          <t>19/12/2019</t>
-        </is>
-      </c>
-      <c r="B82" s="51" t="inlineStr">
-        <is>
-          <t>QUINTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C82" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN MIRANDA</t>
-        </is>
-      </c>
-      <c r="D82" s="51" t="n"/>
-    </row>
-    <row r="83">
-      <c r="A83" s="52" t="inlineStr">
-        <is>
-          <t>20/12/2019</t>
-        </is>
-      </c>
-      <c r="B83" s="52" t="inlineStr">
-        <is>
-          <t>SEXTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C83" s="52" t="inlineStr">
-        <is>
-          <t>2S SAD JULIA</t>
-        </is>
-      </c>
-      <c r="D83" s="51" t="n"/>
-    </row>
-    <row r="84">
-      <c r="A84" s="53" t="inlineStr">
-        <is>
-          <t>21/12/2019</t>
-        </is>
-      </c>
-      <c r="B84" s="53" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="C84" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN RODRIGUES</t>
-        </is>
-      </c>
-      <c r="D84" s="51" t="n"/>
-    </row>
-    <row r="85">
-      <c r="A85" s="53" t="inlineStr">
-        <is>
-          <t>22/12/2019</t>
-        </is>
-      </c>
-      <c r="B85" s="53" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="C85" s="53" t="inlineStr">
-        <is>
-          <t>2S SAD CALIXTO</t>
-        </is>
-      </c>
-      <c r="D85" s="51" t="n"/>
-    </row>
-    <row r="86">
-      <c r="A86" s="51" t="inlineStr">
-        <is>
-          <t>23/12/2019</t>
-        </is>
-      </c>
-      <c r="B86" s="51" t="inlineStr">
-        <is>
-          <t>SEGUNDA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C86" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN ALAN</t>
-        </is>
-      </c>
-      <c r="D86" s="51" t="n"/>
-    </row>
-    <row r="87">
-      <c r="A87" s="54" t="inlineStr">
-        <is>
-          <t>24/12/2019</t>
-        </is>
-      </c>
-      <c r="B87" s="54" t="inlineStr">
-        <is>
-          <t>TERÇA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C87" s="54" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3S SAD JONATHAS </t>
-        </is>
-      </c>
-      <c r="D87" s="51" t="n"/>
-    </row>
-    <row r="88">
-      <c r="A88" s="54" t="inlineStr">
-        <is>
-          <t>25/12/2019</t>
-        </is>
-      </c>
-      <c r="B88" s="54" t="inlineStr">
-        <is>
-          <t>QUARTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C88" s="54" t="inlineStr">
-        <is>
-          <t>3S SIN LEON</t>
-        </is>
-      </c>
-      <c r="D88" s="51" t="n"/>
-    </row>
-    <row r="89">
-      <c r="A89" s="51" t="inlineStr">
-        <is>
-          <t>26/12/2019</t>
-        </is>
-      </c>
-      <c r="B89" s="51" t="inlineStr">
-        <is>
-          <t>QUINTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C89" s="51" t="inlineStr">
-        <is>
-          <t>2S SAD DANIELA FURTADO</t>
-        </is>
-      </c>
-      <c r="D89" s="51" t="n"/>
-    </row>
-    <row r="90">
-      <c r="A90" s="52" t="inlineStr">
-        <is>
-          <t>27/12/2019</t>
-        </is>
-      </c>
-      <c r="B90" s="52" t="inlineStr">
-        <is>
-          <t>SEXTA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C90" s="52" t="inlineStr">
-        <is>
-          <t>2S BET ALMEIDA</t>
-        </is>
-      </c>
-      <c r="D90" s="51" t="n"/>
-    </row>
-    <row r="91">
-      <c r="A91" s="53" t="inlineStr">
-        <is>
-          <t>28/12/2019</t>
-        </is>
-      </c>
-      <c r="B91" s="53" t="inlineStr">
-        <is>
-          <t>SÁBADO</t>
-        </is>
-      </c>
-      <c r="C91" s="53" t="inlineStr">
-        <is>
-          <t>2S SEL DIMAS</t>
-        </is>
-      </c>
-      <c r="D91" s="51" t="n"/>
-    </row>
-    <row r="92">
-      <c r="A92" s="53" t="inlineStr">
-        <is>
-          <t>29/12/2019</t>
-        </is>
-      </c>
-      <c r="B92" s="53" t="inlineStr">
-        <is>
-          <t>DOMINGO</t>
-        </is>
-      </c>
-      <c r="C92" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN TADEU</t>
-        </is>
-      </c>
-      <c r="D92" s="51" t="n"/>
-    </row>
-    <row r="93">
-      <c r="A93" s="51" t="inlineStr">
-        <is>
-          <t>30/12/2019</t>
-        </is>
-      </c>
-      <c r="B93" s="51" t="inlineStr">
-        <is>
-          <t>SEGUNDA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C93" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN ADRIANO</t>
-        </is>
-      </c>
-      <c r="D93" s="51" t="n"/>
-    </row>
-    <row r="94">
-      <c r="A94" s="51" t="inlineStr">
-        <is>
-          <t>31/12/2019</t>
-        </is>
-      </c>
-      <c r="B94" s="51" t="inlineStr">
-        <is>
-          <t>TERÇA-FEIRA</t>
-        </is>
-      </c>
-      <c r="C94" s="51" t="inlineStr">
-        <is>
-          <t>2S BET CLÓVIS</t>
-        </is>
-      </c>
-      <c r="D94" s="51" t="n"/>
-    </row>
-    <row r="95"/>
-    <row r="96">
-      <c r="C96" s="55" t="n"/>
-    </row>
-    <row r="97">
-      <c r="A97" s="53" t="inlineStr">
-        <is>
-          <t>RESERVAS:</t>
-        </is>
-      </c>
-      <c r="B97" s="56" t="n"/>
-      <c r="C97" s="56" t="n"/>
-      <c r="D97" s="57" t="n"/>
-    </row>
-    <row r="98">
-      <c r="A98" s="53" t="inlineStr">
-        <is>
-          <t>VERMELHA</t>
-        </is>
-      </c>
-      <c r="B98" s="57" t="n"/>
-      <c r="C98" s="52" t="inlineStr">
-        <is>
-          <t>MARROM</t>
-        </is>
-      </c>
-      <c r="D98" s="51" t="inlineStr">
-        <is>
-          <t>PRETA</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" s="53" t="inlineStr">
-        <is>
-          <t>05/10/2019</t>
-        </is>
-      </c>
-      <c r="B99" s="53" t="inlineStr">
-        <is>
-          <t>2S SAD TATIANNE</t>
-        </is>
-      </c>
-      <c r="C99" s="52" t="inlineStr">
-        <is>
-          <t>2S SIN MIRANDA</t>
-        </is>
-      </c>
-      <c r="D99" s="51" t="inlineStr">
-        <is>
-          <t>2S SAD LEITE</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" s="53" t="inlineStr">
-        <is>
-          <t>06/10/2019</t>
-        </is>
-      </c>
-      <c r="B100" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN ANDRÉ LUÍZ</t>
-        </is>
-      </c>
-      <c r="C100" s="52" t="inlineStr">
-        <is>
-          <t>2S SIN ALAN</t>
-        </is>
-      </c>
-      <c r="D100" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN ÉDER</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" s="53" t="inlineStr">
-        <is>
-          <t>12/10/2019</t>
-        </is>
-      </c>
-      <c r="B101" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN BRUNO</t>
-        </is>
-      </c>
-      <c r="C101" s="52" t="inlineStr">
-        <is>
-          <t>2S SAD DANIELA FURTADO</t>
-        </is>
-      </c>
-      <c r="D101" s="51" t="inlineStr">
-        <is>
-          <t>2S SIN RODRIGUES</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" s="53" t="inlineStr">
-        <is>
-          <t>13/10/2019</t>
-        </is>
-      </c>
-      <c r="B102" s="53" t="inlineStr">
-        <is>
-          <t>2S SCF GISELI</t>
-        </is>
-      </c>
-      <c r="C102" s="55" t="inlineStr"/>
-      <c r="D102" t="inlineStr"/>
-    </row>
-    <row r="103">
-      <c r="A103" s="53" t="inlineStr">
-        <is>
-          <t>19/10/2019</t>
-        </is>
-      </c>
-      <c r="B103" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN SUELEN</t>
-        </is>
-      </c>
-      <c r="C103" s="55" t="inlineStr"/>
-      <c r="D103" t="inlineStr"/>
-    </row>
-    <row r="104">
-      <c r="A104" s="53" t="inlineStr">
-        <is>
-          <t>20/10/2019</t>
-        </is>
-      </c>
-      <c r="B104" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN VICTOR</t>
-        </is>
-      </c>
-      <c r="C104" s="55" t="inlineStr"/>
-      <c r="D104" t="inlineStr"/>
-    </row>
-    <row r="105">
-      <c r="A105" s="53" t="inlineStr">
-        <is>
-          <t>26/10/2019</t>
-        </is>
-      </c>
-      <c r="B105" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN DAVID</t>
-        </is>
-      </c>
-      <c r="C105" s="55" t="inlineStr"/>
-      <c r="D105" t="inlineStr"/>
-    </row>
-    <row r="106">
-      <c r="A106" s="53" t="inlineStr">
-        <is>
-          <t>27/10/2019</t>
-        </is>
-      </c>
-      <c r="B106" s="53" t="inlineStr">
-        <is>
-          <t>1S SAD CLAUDINO</t>
-        </is>
-      </c>
-      <c r="C106" s="55" t="inlineStr"/>
-      <c r="D106" t="inlineStr"/>
-    </row>
-    <row r="107">
-      <c r="A107" s="53" t="inlineStr">
-        <is>
-          <t>02/11/2019</t>
-        </is>
-      </c>
-      <c r="B107" s="53" t="inlineStr">
-        <is>
-          <t>1S SGS ANDERSON</t>
-        </is>
-      </c>
-      <c r="C107" s="55" t="inlineStr"/>
-      <c r="D107" t="inlineStr"/>
-    </row>
-    <row r="108">
-      <c r="A108" s="53" t="inlineStr">
-        <is>
-          <t>03/11/2019</t>
-        </is>
-      </c>
-      <c r="B108" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN CAMPOS</t>
-        </is>
-      </c>
-      <c r="C108" s="55" t="inlineStr"/>
-      <c r="D108" t="inlineStr"/>
-    </row>
-    <row r="109">
-      <c r="A109" s="53" t="inlineStr">
-        <is>
-          <t>09/11/2019</t>
-        </is>
-      </c>
-      <c r="B109" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN PERROTE</t>
-        </is>
-      </c>
-      <c r="C109" s="55" t="inlineStr"/>
-      <c r="D109" t="inlineStr"/>
-    </row>
-    <row r="110">
-      <c r="A110" s="53" t="inlineStr">
-        <is>
-          <t>10/11/2019</t>
-        </is>
-      </c>
-      <c r="B110" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN JANUÁRIO</t>
-        </is>
-      </c>
-      <c r="C110" s="55" t="inlineStr"/>
-      <c r="D110" t="inlineStr"/>
-    </row>
-    <row r="111">
-      <c r="A111" s="53" t="inlineStr">
-        <is>
-          <t>16/11/2019</t>
-        </is>
-      </c>
-      <c r="B111" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN VAZ</t>
-        </is>
-      </c>
-      <c r="C111" s="55" t="inlineStr"/>
-      <c r="D111" t="inlineStr"/>
-    </row>
-    <row r="112">
-      <c r="A112" s="53" t="inlineStr">
-        <is>
-          <t>17/11/2019</t>
-        </is>
-      </c>
-      <c r="B112" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN SOARES</t>
-        </is>
-      </c>
-      <c r="C112" s="55" t="inlineStr"/>
-      <c r="D112" t="inlineStr"/>
-    </row>
-    <row r="113">
-      <c r="A113" s="53" t="inlineStr">
-        <is>
-          <t>23/11/2019</t>
-        </is>
-      </c>
-      <c r="B113" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN ZÁCCARO</t>
-        </is>
-      </c>
-      <c r="C113" s="55" t="inlineStr"/>
-      <c r="D113" t="inlineStr"/>
-    </row>
-    <row r="114">
-      <c r="A114" s="53" t="inlineStr">
-        <is>
-          <t>24/11/2019</t>
-        </is>
-      </c>
-      <c r="B114" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN ALBINO</t>
-        </is>
-      </c>
-      <c r="C114" s="55" t="inlineStr"/>
-      <c r="D114" t="inlineStr"/>
-    </row>
-    <row r="115">
-      <c r="A115" s="53" t="inlineStr">
-        <is>
-          <t>30/11/2019</t>
-        </is>
-      </c>
-      <c r="B115" s="53" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3S SAD JONATHAS </t>
-        </is>
-      </c>
-      <c r="C115" s="55" t="inlineStr"/>
-      <c r="D115" t="inlineStr"/>
-    </row>
-    <row r="116">
-      <c r="A116" s="53" t="inlineStr">
-        <is>
-          <t>01/12/2019</t>
-        </is>
-      </c>
-      <c r="B116" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN LEON</t>
-        </is>
-      </c>
-      <c r="C116" s="55" t="inlineStr"/>
-      <c r="D116" t="inlineStr"/>
-    </row>
-    <row r="117">
-      <c r="A117" s="53" t="inlineStr">
-        <is>
-          <t>07/12/2019</t>
-        </is>
-      </c>
-      <c r="B117" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN FERRAZ</t>
-        </is>
-      </c>
-      <c r="C117" s="55" t="inlineStr"/>
-      <c r="D117" t="inlineStr"/>
-    </row>
-    <row r="118">
-      <c r="A118" s="53" t="inlineStr">
-        <is>
-          <t>08/12/2019</t>
-        </is>
-      </c>
-      <c r="B118" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN SANTOS</t>
-        </is>
-      </c>
-      <c r="C118" s="55" t="inlineStr"/>
-      <c r="D118" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" s="53" t="inlineStr">
-        <is>
-          <t>14/12/2019</t>
-        </is>
-      </c>
-      <c r="B119" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN PEDROSO</t>
-        </is>
-      </c>
-      <c r="C119" s="55" t="inlineStr"/>
-      <c r="D119" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" s="53" t="inlineStr">
-        <is>
-          <t>15/12/2019</t>
-        </is>
-      </c>
-      <c r="B120" s="53" t="inlineStr">
-        <is>
-          <t>3S SIN MOTTA</t>
-        </is>
-      </c>
-      <c r="C120" s="55" t="inlineStr"/>
-      <c r="D120" t="inlineStr"/>
-    </row>
-    <row r="121">
-      <c r="A121" s="53" t="inlineStr">
-        <is>
-          <t>21/12/2019</t>
-        </is>
-      </c>
-      <c r="B121" s="53" t="inlineStr">
-        <is>
-          <t>2S BET ALMEIDA</t>
-        </is>
-      </c>
-      <c r="C121" s="55" t="inlineStr"/>
-      <c r="D121" t="inlineStr"/>
-    </row>
-    <row r="122">
-      <c r="A122" s="53" t="inlineStr">
-        <is>
-          <t>22/12/2019</t>
-        </is>
-      </c>
-      <c r="B122" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN MIRANDA</t>
-        </is>
-      </c>
-      <c r="C122" s="55" t="inlineStr"/>
-      <c r="D122" t="inlineStr"/>
-    </row>
-    <row r="123">
-      <c r="A123" s="53" t="inlineStr">
-        <is>
-          <t>28/12/2019</t>
-        </is>
-      </c>
-      <c r="B123" s="53" t="inlineStr">
-        <is>
-          <t>2S SAD JULIA</t>
-        </is>
-      </c>
-      <c r="C123" s="55" t="inlineStr"/>
-      <c r="D123" t="inlineStr"/>
-    </row>
-    <row r="124">
-      <c r="A124" s="53" t="inlineStr">
-        <is>
-          <t>29/12/2019</t>
-        </is>
-      </c>
-      <c r="B124" s="53" t="inlineStr">
-        <is>
-          <t>2S SIN ALAN</t>
-        </is>
-      </c>
-      <c r="C124" s="55" t="inlineStr"/>
-      <c r="D124" t="inlineStr"/>
-    </row>
-    <row r="125">
-      <c r="A125" s="58" t="inlineStr">
-        <is>
-          <t>São José dos Campos, 13 de agosto de 2019</t>
-        </is>
-      </c>
-      <c r="B125" s="58" t="n"/>
-      <c r="C125" s="58" t="n"/>
-      <c r="D125" s="58" t="n"/>
-    </row>
-    <row r="126">
-      <c r="A126" s="58" t="n"/>
-      <c r="B126" s="58" t="n"/>
-      <c r="C126" s="58" t="n"/>
-      <c r="D126" s="58" t="n"/>
-    </row>
-    <row r="127">
-      <c r="A127" s="58" t="inlineStr">
-        <is>
-          <t>______________________________________</t>
-        </is>
-      </c>
-      <c r="B127" s="58" t="n"/>
-      <c r="C127" s="58" t="inlineStr">
-        <is>
-          <t>______________________________________</t>
-        </is>
-      </c>
-      <c r="D127" s="58" t="n"/>
-    </row>
-    <row r="128">
-      <c r="A128" s="58" t="inlineStr">
-        <is>
-          <t>Paulo Roberto JUBINI - 1º Ten Esp Aer SVA</t>
-        </is>
-      </c>
-      <c r="B128" s="58" t="n"/>
-      <c r="C128" s="58" t="inlineStr">
-        <is>
-          <t>SOLANGE Ferreira Rodrigues - 1S SAD</t>
-        </is>
-      </c>
-      <c r="D128" s="58" t="n"/>
-    </row>
-    <row r="129">
-      <c r="A129" s="58" t="inlineStr">
+      <c r="A50" s="57" t="inlineStr">
         <is>
           <t>Chefe da Seção de Pessoal do CCA-SJ</t>
         </is>
       </c>
-      <c r="B129" s="58" t="n"/>
-      <c r="C129" s="58" t="inlineStr">
+      <c r="B50" s="57" t="n"/>
+      <c r="C50" s="57" t="inlineStr">
         <is>
           <t>Escalante do CCA-SJ</t>
         </is>
       </c>
-      <c r="D129" s="58" t="n"/>
+      <c r="D50" s="57" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="10">
-    <mergeCell ref="A97:D97"/>
-    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:B37"/>
     <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A127:B127"/>
-    <mergeCell ref="C127:D127"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="C128:D128"/>
-    <mergeCell ref="A129:B129"/>
-    <mergeCell ref="C129:D129"/>
+    <mergeCell ref="A46:B46"/>
+    <mergeCell ref="A48:B48"/>
+    <mergeCell ref="C48:D48"/>
+    <mergeCell ref="A49:B49"/>
+    <mergeCell ref="C49:D49"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="C50:D50"/>
   </mergeCells>
   <pageMargins bottom="0.5" footer="0.5" header="0.5" left="0.5" right="0.5" top="0.5"/>
 </worksheet>

--- a/Escala.outubro.xlsx
+++ b/Escala.outubro.xlsx
@@ -770,7 +770,7 @@
   <dimension ref="A1:CG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15"/>

--- a/Escala.outubro.xlsx
+++ b/Escala.outubro.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="EstaPasta_de_trabalho"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8265" windowWidth="18735" xWindow="360" yWindow="300"/>
+    <workbookView activeTab="1" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="8265" windowWidth="18735" xWindow="360" yWindow="300"/>
   </bookViews>
   <sheets>
-    <sheet name="Inicio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Inicio" sheetId="1" state="hidden" r:id="rId1"/>
     <sheet name="Vermelha" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Preta" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Marrom" sheetId="4" state="visible" r:id="rId4"/>
@@ -21,8 +21,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="yyyy-mm-dd" numFmtId="164"/>
-    <numFmt formatCode="dd/mm/yyyy" numFmtId="165"/>
+    <numFmt formatCode="dd/mm/yyyy" numFmtId="164"/>
+    <numFmt formatCode="yyyy-mm-dd" numFmtId="165"/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -341,7 +341,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="0" numFmtId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -451,7 +451,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="19" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="8" fillId="0" fontId="22" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf borderId="8" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="23" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
@@ -470,6 +470,7 @@
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="22" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
+    <xf borderId="8" fillId="0" fontId="22" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -770,10 +771,10 @@
   <dimension ref="A1:CG51"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="7" width="26.28515625"/>
     <col customWidth="1" max="2" min="2" style="4" width="10.7109375"/>
@@ -1561,7 +1562,9 @@
           <t>2S SAD JULIA</t>
         </is>
       </c>
-      <c r="B29" s="15" t="n"/>
+      <c r="B29" s="15" t="n">
+        <v>43764</v>
+      </c>
       <c r="C29" s="15" t="n"/>
       <c r="D29" s="15" t="n"/>
       <c r="E29" s="15" t="n"/>
@@ -2162,7 +2165,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="22" width="24.5703125"/>
     <col customWidth="1" max="29" min="2" style="1" width="10.7109375"/>
@@ -2176,271 +2179,271 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="inlineStr">
+      <c r="A2" s="58" t="inlineStr">
         <is>
           <t>1S SGS ANDERSON</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="inlineStr">
+      <c r="A3" s="58" t="inlineStr">
         <is>
           <t>1S SAD CLAUDINO</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="inlineStr">
+      <c r="A4" s="58" t="inlineStr">
         <is>
           <t>2S SIN DAVID</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="inlineStr">
+      <c r="A5" s="58" t="inlineStr">
         <is>
           <t>2S SIN VICTOR</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="inlineStr">
+      <c r="A6" s="58" t="inlineStr">
         <is>
           <t>2S SIN SUELEN</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="inlineStr">
+      <c r="A7" s="58" t="inlineStr">
         <is>
           <t>2S SCF GISELI</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="inlineStr">
+      <c r="A8" s="58" t="inlineStr">
         <is>
           <t>2S SIN BRUNO</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="inlineStr">
+      <c r="A9" s="58" t="inlineStr">
         <is>
           <t>2S SIN ANDRÉ LUÍZ</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="inlineStr">
+      <c r="A10" s="58" t="inlineStr">
         <is>
           <t>2S SAD TATIANNE</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="inlineStr">
+      <c r="A11" s="58" t="inlineStr">
         <is>
           <t>2S SIN TADEU</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="inlineStr">
+      <c r="A12" s="58" t="inlineStr">
         <is>
           <t>2S SEL DIMAS</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="inlineStr">
+      <c r="A13" s="58" t="inlineStr">
         <is>
           <t>2S SAD CALIXTO</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="inlineStr">
+      <c r="A14" s="58" t="inlineStr">
         <is>
           <t>2S SIN RODRIGUES</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="49" t="inlineStr">
+      <c r="A15" s="58" t="inlineStr">
         <is>
           <t>2S SIN ÉDER</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="inlineStr">
+      <c r="A16" s="58" t="inlineStr">
         <is>
           <t>2S SAD LEITE</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="49" t="inlineStr">
+      <c r="A17" s="58" t="inlineStr">
         <is>
           <t>2S BET CLÓVIS</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="inlineStr">
+      <c r="A18" s="58" t="inlineStr">
         <is>
           <t>2S SIN ADRIANO</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="inlineStr">
+      <c r="A19" s="58" t="inlineStr">
         <is>
           <t>2S SAD DANIELA FURTADO</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="inlineStr">
+      <c r="A20" s="58" t="inlineStr">
         <is>
           <t>2S SIN ALAN</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="inlineStr">
+      <c r="A21" s="58" t="inlineStr">
         <is>
           <t>2S SIN MIRANDA</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="49" t="inlineStr">
+      <c r="A22" s="58" t="inlineStr">
         <is>
           <t>2S BET ALMEIDA</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="inlineStr">
+      <c r="A23" s="58" t="inlineStr">
         <is>
           <t>2S SAD JULIA</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="49" t="inlineStr">
+      <c r="A24" s="58" t="inlineStr">
         <is>
           <t>3S SIN SANTOS</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="49" t="inlineStr">
+      <c r="A25" s="58" t="inlineStr">
         <is>
           <t>3S SIN MOTTA</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="49" t="inlineStr">
+      <c r="A26" s="58" t="inlineStr">
         <is>
           <t>3S SIN PEDROSO</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="49" t="inlineStr">
+      <c r="A27" s="58" t="inlineStr">
         <is>
           <t>3S SIN FERRAZ</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="49" t="inlineStr">
+      <c r="A28" s="58" t="inlineStr">
         <is>
           <t>3S SIN LEON</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="49" t="inlineStr">
+      <c r="A29" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">3S SAD JONATHAS </t>
         </is>
       </c>
-      <c r="B29" s="49" t="n">
+      <c r="B29" s="58" t="n">
         <v>43765</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="49" t="inlineStr">
+      <c r="A30" s="58" t="inlineStr">
         <is>
           <t>3S SIN ALBINO</t>
         </is>
       </c>
-      <c r="B30" s="49" t="n">
+      <c r="B30" s="58" t="n">
         <v>43764</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="49" t="inlineStr">
+      <c r="A31" s="58" t="inlineStr">
         <is>
           <t>3S SIN ZÁCCARO</t>
         </is>
       </c>
-      <c r="B31" s="49" t="n">
+      <c r="B31" s="58" t="n">
         <v>43758</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="49" t="inlineStr">
+      <c r="A32" s="58" t="inlineStr">
         <is>
           <t>3S SIN SOARES</t>
         </is>
       </c>
-      <c r="B32" s="49" t="n">
+      <c r="B32" s="58" t="n">
         <v>43751</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="49" t="inlineStr">
+      <c r="A33" s="58" t="inlineStr">
         <is>
           <t>3S SIN JANUÁRIO</t>
         </is>
       </c>
-      <c r="B33" s="49" t="n">
+      <c r="B33" s="58" t="n">
         <v>43744</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="49" t="inlineStr">
+      <c r="A34" s="58" t="inlineStr">
         <is>
           <t>3S SIN VAZ</t>
         </is>
       </c>
-      <c r="B34" s="49" t="n">
+      <c r="B34" s="58" t="n">
         <v>43757</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="49" t="inlineStr">
+      <c r="A35" s="58" t="inlineStr">
         <is>
           <t>3S SIN PERROTE</t>
         </is>
       </c>
-      <c r="B35" s="49" t="n">
+      <c r="B35" s="58" t="n">
         <v>43743</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="49" t="inlineStr">
+      <c r="A36" s="58" t="inlineStr">
         <is>
           <t>3S SIN CAMPOS</t>
         </is>
       </c>
-      <c r="B36" s="49" t="n">
+      <c r="B36" s="58" t="n">
         <v>43750</v>
       </c>
     </row>
@@ -2462,7 +2465,7 @@
       <selection activeCell="D2" sqref="B2:D37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="2" width="24.5703125"/>
     <col customWidth="1" max="29" min="2" style="1" width="10.7109375"/>
@@ -2483,304 +2486,304 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="inlineStr">
+      <c r="A2" s="58" t="inlineStr">
         <is>
           <t>1S SGS ANDERSON</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="inlineStr">
+      <c r="A3" s="58" t="inlineStr">
         <is>
           <t>1S SAD CLAUDINO</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="inlineStr">
+      <c r="A4" s="58" t="inlineStr">
         <is>
           <t>2S SIN DAVID</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="inlineStr">
+      <c r="A5" s="58" t="inlineStr">
         <is>
           <t>2S SIN VICTOR</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="inlineStr">
+      <c r="A6" s="58" t="inlineStr">
         <is>
           <t>2S SIN SUELEN</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="inlineStr">
+      <c r="A7" s="58" t="inlineStr">
         <is>
           <t>2S SCF GISELI</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="inlineStr">
+      <c r="A8" s="58" t="inlineStr">
         <is>
           <t>2S SIN BRUNO</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="inlineStr">
+      <c r="A9" s="58" t="inlineStr">
         <is>
           <t>2S SIN ANDRÉ LUÍZ</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="inlineStr">
+      <c r="A10" s="58" t="inlineStr">
         <is>
           <t>2S SAD TATIANNE</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="inlineStr">
+      <c r="A11" s="58" t="inlineStr">
         <is>
           <t>2S SIN TADEU</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="inlineStr">
+      <c r="A12" s="58" t="inlineStr">
         <is>
           <t>2S SEL DIMAS</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="inlineStr">
+      <c r="A13" s="58" t="inlineStr">
         <is>
           <t>2S SAD CALIXTO</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="inlineStr">
+      <c r="A14" s="58" t="inlineStr">
         <is>
           <t>2S SIN RODRIGUES</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="49" t="inlineStr">
+      <c r="A15" s="58" t="inlineStr">
         <is>
           <t>2S SIN ÉDER</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="inlineStr">
+      <c r="A16" s="58" t="inlineStr">
         <is>
           <t>2S SAD LEITE</t>
         </is>
       </c>
-      <c r="B16" s="49" t="n">
+      <c r="B16" s="58" t="n">
         <v>43769</v>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="49" t="inlineStr">
+      <c r="A17" s="58" t="inlineStr">
         <is>
           <t>2S BET CLÓVIS</t>
         </is>
       </c>
-      <c r="B17" s="49" t="n">
+      <c r="B17" s="58" t="n">
         <v>43768</v>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="inlineStr">
+      <c r="A18" s="58" t="inlineStr">
         <is>
           <t>2S SIN ADRIANO</t>
         </is>
       </c>
-      <c r="B18" s="49" t="n">
+      <c r="B18" s="58" t="n">
         <v>43767</v>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="inlineStr">
+      <c r="A19" s="58" t="inlineStr">
         <is>
           <t>2S SAD DANIELA FURTADO</t>
         </is>
       </c>
-      <c r="B19" s="49" t="n">
+      <c r="B19" s="58" t="n">
         <v>43766</v>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="inlineStr">
+      <c r="A20" s="58" t="inlineStr">
         <is>
           <t>2S SIN ALAN</t>
         </is>
       </c>
-      <c r="B20" s="49" t="n">
+      <c r="B20" s="58" t="n">
         <v>43762</v>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="inlineStr">
+      <c r="A21" s="58" t="inlineStr">
         <is>
           <t>2S SIN MIRANDA</t>
         </is>
       </c>
-      <c r="B21" s="49" t="n">
+      <c r="B21" s="58" t="n">
         <v>43761</v>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="49" t="inlineStr">
+      <c r="A22" s="58" t="inlineStr">
         <is>
           <t>2S BET ALMEIDA</t>
         </is>
       </c>
-      <c r="B22" s="49" t="n">
+      <c r="B22" s="58" t="n">
         <v>43760</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="inlineStr">
+      <c r="A23" s="58" t="inlineStr">
         <is>
           <t>2S SAD JULIA</t>
         </is>
       </c>
-      <c r="B23" s="49" t="n">
+      <c r="B23" s="58" t="n">
         <v>43759</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="49" t="inlineStr">
+      <c r="A24" s="58" t="inlineStr">
         <is>
           <t>3S SIN SANTOS</t>
         </is>
       </c>
-      <c r="B24" s="49" t="n">
+      <c r="B24" s="58" t="n">
         <v>43755</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="49" t="inlineStr">
+      <c r="A25" s="58" t="inlineStr">
         <is>
           <t>3S SIN MOTTA</t>
         </is>
       </c>
-      <c r="B25" s="49" t="n">
+      <c r="B25" s="58" t="n">
         <v>43754</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="49" t="inlineStr">
+      <c r="A26" s="58" t="inlineStr">
         <is>
           <t>* 3S SIN PEDROSO</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="49" t="inlineStr">
+      <c r="A27" s="58" t="inlineStr">
         <is>
           <t>3S SIN FERRAZ</t>
         </is>
       </c>
-      <c r="B27" s="49" t="n">
+      <c r="B27" s="58" t="n">
         <v>43753</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="49" t="inlineStr">
+      <c r="A28" s="58" t="inlineStr">
         <is>
           <t>3S SIN LEON</t>
         </is>
       </c>
-      <c r="B28" s="49" t="n">
+      <c r="B28" s="58" t="n">
         <v>43752</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="49" t="inlineStr">
+      <c r="A29" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">3S SAD JONATHAS </t>
         </is>
       </c>
-      <c r="B29" s="49" t="n">
+      <c r="B29" s="58" t="n">
         <v>43748</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="49" t="inlineStr">
+      <c r="A30" s="58" t="inlineStr">
         <is>
           <t>3S SIN ALBINO</t>
         </is>
       </c>
-      <c r="B30" s="49" t="n">
+      <c r="B30" s="58" t="n">
         <v>43747</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="49" t="inlineStr">
+      <c r="A31" s="58" t="inlineStr">
         <is>
           <t>3S SIN ZÁCCARO</t>
         </is>
       </c>
-      <c r="B31" s="49" t="n">
+      <c r="B31" s="58" t="n">
         <v>43746</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="49" t="inlineStr">
+      <c r="A32" s="58" t="inlineStr">
         <is>
           <t>3S SIN SOARES</t>
         </is>
       </c>
-      <c r="B32" s="49" t="n">
+      <c r="B32" s="58" t="n">
         <v>43745</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="49" t="inlineStr">
+      <c r="A33" s="58" t="inlineStr">
         <is>
           <t>3S SIN JANUÁRIO</t>
         </is>
       </c>
-      <c r="B33" s="49" t="n">
+      <c r="B33" s="58" t="n">
         <v>43741</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="49" t="inlineStr">
+      <c r="A34" s="58" t="inlineStr">
         <is>
           <t>* 3S SIN VAZ</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="49" t="inlineStr">
+      <c r="A35" s="58" t="inlineStr">
         <is>
           <t>3S SIN PERROTE</t>
         </is>
       </c>
-      <c r="B35" s="49" t="n">
+      <c r="B35" s="58" t="n">
         <v>43740</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="49" t="inlineStr">
+      <c r="A36" s="58" t="inlineStr">
         <is>
           <t>3S SIN CAMPOS</t>
         </is>
       </c>
-      <c r="B36" s="49" t="n">
+      <c r="B36" s="58" t="n">
         <v>43739</v>
       </c>
     </row>
@@ -2801,7 +2804,7 @@
       <selection activeCell="C15" sqref="B15:C36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="3" width="24.5703125"/>
     <col customWidth="1" max="29" min="2" style="1" width="10.7109375"/>
@@ -2822,259 +2825,259 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="inlineStr">
+      <c r="A2" s="58" t="inlineStr">
         <is>
           <t>1S SGS ANDERSON</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="inlineStr">
+      <c r="A3" s="58" t="inlineStr">
         <is>
           <t>1S SAD CLAUDINO</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="inlineStr">
+      <c r="A4" s="58" t="inlineStr">
         <is>
           <t>2S SIN DAVID</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="inlineStr">
+      <c r="A5" s="58" t="inlineStr">
         <is>
           <t>2S SIN VICTOR</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="inlineStr">
+      <c r="A6" s="58" t="inlineStr">
         <is>
           <t>2S SIN SUELEN</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="inlineStr">
+      <c r="A7" s="58" t="inlineStr">
         <is>
           <t>2S SCF GISELI</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="inlineStr">
+      <c r="A8" s="58" t="inlineStr">
         <is>
           <t>2S SIN BRUNO</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="inlineStr">
+      <c r="A9" s="58" t="inlineStr">
         <is>
           <t>2S SIN ANDRÉ LUÍZ</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="inlineStr">
+      <c r="A10" s="58" t="inlineStr">
         <is>
           <t>2S SAD TATIANNE</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="inlineStr">
+      <c r="A11" s="58" t="inlineStr">
         <is>
           <t>2S SIN TADEU</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="inlineStr">
+      <c r="A12" s="58" t="inlineStr">
         <is>
           <t>2S SEL DIMAS</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="inlineStr">
+      <c r="A13" s="58" t="inlineStr">
         <is>
           <t>2S SAD CALIXTO</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="inlineStr">
+      <c r="A14" s="58" t="inlineStr">
         <is>
           <t>2S SIN RODRIGUES</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="49" t="inlineStr">
+      <c r="A15" s="58" t="inlineStr">
         <is>
           <t>2S SIN ÉDER</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="inlineStr">
+      <c r="A16" s="58" t="inlineStr">
         <is>
           <t>2S SAD LEITE</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="49" t="inlineStr">
+      <c r="A17" s="58" t="inlineStr">
         <is>
           <t>2S BET CLÓVIS</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="inlineStr">
+      <c r="A18" s="58" t="inlineStr">
         <is>
           <t>2S SIN ADRIANO</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="inlineStr">
+      <c r="A19" s="58" t="inlineStr">
         <is>
           <t>2S SAD DANIELA FURTADO</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="inlineStr">
+      <c r="A20" s="58" t="inlineStr">
         <is>
           <t>2S SIN ALAN</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="inlineStr">
+      <c r="A21" s="58" t="inlineStr">
         <is>
           <t>2S SIN MIRANDA</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="49" t="inlineStr">
+      <c r="A22" s="58" t="inlineStr">
         <is>
           <t>2S BET ALMEIDA</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="inlineStr">
+      <c r="A23" s="58" t="inlineStr">
         <is>
           <t>2S SAD JULIA</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="49" t="inlineStr">
+      <c r="A24" s="58" t="inlineStr">
         <is>
           <t>3S SIN SANTOS</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="49" t="inlineStr">
+      <c r="A25" s="58" t="inlineStr">
         <is>
           <t>3S SIN MOTTA</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="49" t="inlineStr">
+      <c r="A26" s="58" t="inlineStr">
         <is>
           <t>* 3S SIN PEDROSO</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="49" t="inlineStr">
+      <c r="A27" s="58" t="inlineStr">
         <is>
           <t>3S SIN FERRAZ</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="49" t="inlineStr">
+      <c r="A28" s="58" t="inlineStr">
         <is>
           <t>3S SIN LEON</t>
         </is>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="49" t="inlineStr">
+      <c r="A29" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">3S SAD JONATHAS </t>
         </is>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="49" t="inlineStr">
+      <c r="A30" s="58" t="inlineStr">
         <is>
           <t>3S SIN ALBINO</t>
         </is>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="49" t="inlineStr">
+      <c r="A31" s="58" t="inlineStr">
         <is>
           <t>3S SIN ZÁCCARO</t>
         </is>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="49" t="inlineStr">
+      <c r="A32" s="58" t="inlineStr">
         <is>
           <t>3S SIN SOARES</t>
         </is>
       </c>
-      <c r="B32" s="49" t="n">
+      <c r="B32" s="58" t="n">
         <v>43763</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="49" t="inlineStr">
+      <c r="A33" s="58" t="inlineStr">
         <is>
           <t>3S SIN JANUÁRIO</t>
         </is>
       </c>
-      <c r="B33" s="49" t="n">
+      <c r="B33" s="58" t="n">
         <v>43756</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="49" t="inlineStr">
+      <c r="A34" s="58" t="inlineStr">
         <is>
           <t>* 3S SIN VAZ</t>
         </is>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="49" t="inlineStr">
+      <c r="A35" s="58" t="inlineStr">
         <is>
           <t>3S SIN PERROTE</t>
         </is>
       </c>
-      <c r="B35" s="49" t="n">
+      <c r="B35" s="58" t="n">
         <v>43749</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="49" t="inlineStr">
+      <c r="A36" s="58" t="inlineStr">
         <is>
           <t>3S SIN CAMPOS</t>
         </is>
       </c>
-      <c r="B36" s="49" t="n">
+      <c r="B36" s="58" t="n">
         <v>43742</v>
       </c>
     </row>
@@ -3096,7 +3099,7 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="10.7109375" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col bestFit="1" customWidth="1" max="1" min="1" style="19" width="24.5703125"/>
     <col customWidth="1" max="29" min="2" style="1" width="10.7109375"/>
@@ -3140,271 +3143,271 @@
       <c r="AC1" s="21" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" s="49" t="inlineStr">
+      <c r="A2" s="58" t="inlineStr">
         <is>
           <t>1S SGS ANDERSON</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="49" t="inlineStr">
+      <c r="A3" s="58" t="inlineStr">
         <is>
           <t>1S SAD CLAUDINO</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="49" t="inlineStr">
+      <c r="A4" s="58" t="inlineStr">
         <is>
           <t>2S SIN DAVID</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="49" t="inlineStr">
+      <c r="A5" s="58" t="inlineStr">
         <is>
           <t>2S SIN VICTOR</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="49" t="inlineStr">
+      <c r="A6" s="58" t="inlineStr">
         <is>
           <t>2S SIN SUELEN</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="49" t="inlineStr">
+      <c r="A7" s="58" t="inlineStr">
         <is>
           <t>2S SCF GISELI</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="49" t="inlineStr">
+      <c r="A8" s="58" t="inlineStr">
         <is>
           <t>2S SIN BRUNO</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="49" t="inlineStr">
+      <c r="A9" s="58" t="inlineStr">
         <is>
           <t>2S SIN ANDRÉ LUÍZ</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="49" t="inlineStr">
+      <c r="A10" s="58" t="inlineStr">
         <is>
           <t>2S SAD TATIANNE</t>
         </is>
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="49" t="inlineStr">
+      <c r="A11" s="58" t="inlineStr">
         <is>
           <t>2S SIN TADEU</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="49" t="inlineStr">
+      <c r="A12" s="58" t="inlineStr">
         <is>
           <t>2S SEL DIMAS</t>
         </is>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="49" t="inlineStr">
+      <c r="A13" s="58" t="inlineStr">
         <is>
           <t>2S SAD CALIXTO</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" s="49" t="inlineStr">
+      <c r="A14" s="58" t="inlineStr">
         <is>
           <t>2S SIN RODRIGUES</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" s="49" t="inlineStr">
+      <c r="A15" s="58" t="inlineStr">
         <is>
           <t>2S SIN ÉDER</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="49" t="inlineStr">
+      <c r="A16" s="58" t="inlineStr">
         <is>
           <t>2S SAD LEITE</t>
         </is>
       </c>
-      <c r="B16" s="49" t="inlineStr">
+      <c r="B16" s="58" t="inlineStr">
         <is>
           <t>Lastro</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" s="49" t="inlineStr">
+      <c r="A17" s="58" t="inlineStr">
         <is>
           <t>2S BET CLÓVIS</t>
         </is>
       </c>
     </row>
     <row r="18">
-      <c r="A18" s="49" t="inlineStr">
+      <c r="A18" s="58" t="inlineStr">
         <is>
           <t>2S SIN ADRIANO</t>
         </is>
       </c>
     </row>
     <row r="19">
-      <c r="A19" s="49" t="inlineStr">
+      <c r="A19" s="58" t="inlineStr">
         <is>
           <t>2S SAD DANIELA FURTADO</t>
         </is>
       </c>
     </row>
     <row r="20">
-      <c r="A20" s="49" t="inlineStr">
+      <c r="A20" s="58" t="inlineStr">
         <is>
           <t>2S SIN ALAN</t>
         </is>
       </c>
     </row>
     <row r="21">
-      <c r="A21" s="49" t="inlineStr">
+      <c r="A21" s="58" t="inlineStr">
         <is>
           <t>2S SIN MIRANDA</t>
         </is>
       </c>
     </row>
     <row r="22">
-      <c r="A22" s="49" t="inlineStr">
+      <c r="A22" s="58" t="inlineStr">
         <is>
           <t>2S BET ALMEIDA</t>
         </is>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="49" t="inlineStr">
+      <c r="A23" s="58" t="inlineStr">
         <is>
           <t>2S SAD JULIA</t>
         </is>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="49" t="inlineStr">
+      <c r="A24" s="58" t="inlineStr">
         <is>
           <t>3S SIN SANTOS</t>
         </is>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="49" t="inlineStr">
+      <c r="A25" s="58" t="inlineStr">
         <is>
           <t>3S SIN MOTTA</t>
         </is>
       </c>
     </row>
     <row r="26">
-      <c r="A26" s="49" t="inlineStr">
+      <c r="A26" s="58" t="inlineStr">
         <is>
           <t>3S SIN PEDROSO</t>
         </is>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="49" t="inlineStr">
+      <c r="A27" s="58" t="inlineStr">
         <is>
           <t>3S SIN FERRAZ</t>
         </is>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="49" t="inlineStr">
+      <c r="A28" s="58" t="inlineStr">
         <is>
           <t>3S SIN LEON</t>
         </is>
       </c>
-      <c r="B28" s="49" t="n">
+      <c r="B28" s="58" t="n">
         <v>43824</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="49" t="inlineStr">
+      <c r="A29" s="58" t="inlineStr">
         <is>
           <t xml:space="preserve">3S SAD JONATHAS </t>
         </is>
       </c>
-      <c r="B29" s="49" t="n">
+      <c r="B29" s="58" t="n">
         <v>43823</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="49" t="inlineStr">
+      <c r="A30" s="58" t="inlineStr">
         <is>
           <t>3S SIN ALBINO</t>
         </is>
       </c>
-      <c r="B30" s="49" t="n">
+      <c r="B30" s="58" t="n">
         <v>43702</v>
       </c>
     </row>
     <row r="31">
-      <c r="A31" s="49" t="inlineStr">
+      <c r="A31" s="58" t="inlineStr">
         <is>
           <t>3S SIN ZÁCCARO</t>
         </is>
       </c>
-      <c r="B31" s="49" t="n">
+      <c r="B31" s="58" t="n">
         <v>43701</v>
       </c>
     </row>
     <row r="32">
-      <c r="A32" s="49" t="inlineStr">
+      <c r="A32" s="58" t="inlineStr">
         <is>
           <t>3S SIN SOARES</t>
         </is>
       </c>
-      <c r="B32" s="49" t="n">
+      <c r="B32" s="58" t="n">
         <v>43641</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="49" t="inlineStr">
+      <c r="A33" s="58" t="inlineStr">
         <is>
           <t>3S SIN JANUÁRIO</t>
         </is>
       </c>
-      <c r="B33" s="49" t="n">
+      <c r="B33" s="58" t="n">
         <v>43703</v>
       </c>
     </row>
     <row r="34">
-      <c r="A34" s="49" t="inlineStr">
+      <c r="A34" s="58" t="inlineStr">
         <is>
           <t>3S SIN VAZ</t>
         </is>
       </c>
-      <c r="B34" s="49" t="n">
+      <c r="B34" s="58" t="n">
         <v>43642</v>
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="49" t="inlineStr">
+      <c r="A35" s="58" t="inlineStr">
         <is>
           <t>3S SIN PERROTE</t>
         </is>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="49" t="inlineStr">
+      <c r="A36" s="58" t="inlineStr">
         <is>
           <t>3S SIN CAMPOS</t>
         </is>
@@ -3427,7 +3430,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
     <col customWidth="1" max="1" min="1" style="47" width="14"/>
     <col customWidth="1" max="2" min="2" style="47" width="26"/>
@@ -4170,7 +4173,7 @@
       </c>
       <c r="B44" s="53" t="inlineStr">
         <is>
-          <t>2S SAD JULIA</t>
+          <t>2S SIN MIRANDA</t>
         </is>
       </c>
       <c r="C44" s="54" t="inlineStr"/>
@@ -4184,7 +4187,7 @@
       </c>
       <c r="B45" s="53" t="inlineStr">
         <is>
-          <t>2S SIN MIRANDA</t>
+          <t>2S SAD JULIA</t>
         </is>
       </c>
       <c r="C45" s="54" t="inlineStr"/>
